--- a/output_reports/Импланты_01.01-01.02.xlsx
+++ b/output_reports/Импланты_01.01-01.02.xlsx
@@ -60,7 +60,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -97,6 +97,21 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD6E5CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -639,7 +654,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -694,7 +709,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -751,6 +766,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -758,7 +779,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -778,6 +808,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -823,9 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1224,18 +1254,12 @@
     <col hidden="1" outlineLevel="1" width="7.5" customWidth="1" min="6" max="8"/>
     <col width="8.25" customWidth="1" min="9" max="9"/>
     <col width="8.25" customWidth="1" min="10" max="10"/>
-    <col width="8.25" customWidth="1" min="11" max="11"/>
-    <col width="8.25" customWidth="1" min="12" max="12"/>
-    <col width="8.25" customWidth="1" min="13" max="13"/>
-    <col width="8.25" customWidth="1" min="14" max="14"/>
-    <col width="8.25" customWidth="1" min="15" max="15"/>
-    <col width="8.25" customWidth="1" min="16" max="16"/>
-    <col width="8.25" customWidth="1" min="17" max="17"/>
-    <col width="8.25" customWidth="1" min="18" max="18"/>
+    <col hidden="1" outlineLevel="1" width="8.25" customWidth="1" min="11" max="18"/>
     <col width="20" customWidth="1" min="19" max="19"/>
     <col width="20" customWidth="1" min="20" max="20"/>
     <col width="20" customWidth="1" min="21" max="21"/>
     <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1335,19 +1359,9 @@
           <t>Неотгружено по опт. заявкам</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="2" t="inlineStr">
         <is>
           <t>Необходимый остаток на 4 месяца</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Оригинал</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>КД</t>
         </is>
       </c>
     </row>
@@ -1398,6 +1412,7 @@
       <c r="T5" s="2" t="n"/>
       <c r="U5" s="2" t="n"/>
       <c r="V5" s="2" t="n"/>
+      <c r="W5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -1454,6 +1469,7 @@
       <c r="T6" s="2" t="n"/>
       <c r="U6" s="2" t="n"/>
       <c r="V6" s="2" t="n"/>
+      <c r="W6" s="2" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
@@ -4299,7 +4315,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="22">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
@@ -4315,8 +4331,6 @@
     <mergeCell ref="U4:U6"/>
     <mergeCell ref="V4:V6"/>
     <mergeCell ref="W4:W6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:Y6"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
@@ -4351,18 +4365,14 @@
     <col hidden="1" outlineLevel="1" width="7.5" customWidth="1" min="6" max="8"/>
     <col width="8.25" customWidth="1" min="9" max="9"/>
     <col width="8.25" customWidth="1" min="10" max="10"/>
-    <col width="8.25" customWidth="1" min="11" max="11"/>
-    <col width="8.25" customWidth="1" min="12" max="12"/>
-    <col width="8.25" customWidth="1" min="13" max="13"/>
-    <col width="8.25" customWidth="1" min="14" max="14"/>
-    <col width="8.25" customWidth="1" min="15" max="15"/>
-    <col width="8.25" customWidth="1" min="16" max="16"/>
-    <col width="8.25" customWidth="1" min="17" max="17"/>
-    <col width="8.25" customWidth="1" min="18" max="18"/>
+    <col hidden="1" outlineLevel="1" width="8.25" customWidth="1" min="11" max="18"/>
     <col width="20" customWidth="1" min="19" max="19"/>
     <col width="20" customWidth="1" min="20" max="20"/>
     <col width="20" customWidth="1" min="21" max="21"/>
     <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
+    <col width="20" customWidth="1" min="24" max="24"/>
+    <col width="20" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4462,17 +4472,17 @@
           <t>Неотгружено по опт. заявкам</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="2" t="inlineStr">
         <is>
           <t>Необходимый остаток на 4 месяца</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="2" t="inlineStr">
         <is>
           <t>Оригинал</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="2" t="inlineStr">
         <is>
           <t>КД</t>
         </is>
@@ -4525,6 +4535,9 @@
       <c r="T5" s="2" t="n"/>
       <c r="U5" s="2" t="n"/>
       <c r="V5" s="2" t="n"/>
+      <c r="W5" s="2" t="n"/>
+      <c r="X5" s="2" t="n"/>
+      <c r="Y5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -4581,6 +4594,9 @@
       <c r="T6" s="2" t="n"/>
       <c r="U6" s="2" t="n"/>
       <c r="V6" s="2" t="n"/>
+      <c r="W6" s="2" t="n"/>
+      <c r="X6" s="2" t="n"/>
+      <c r="Y6" s="2" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="39" t="n"/>
@@ -4646,12 +4662,12 @@
       <c r="W7" s="50" t="n">
         <v>100</v>
       </c>
-      <c r="X7" s="49" t="inlineStr">
+      <c r="X7" s="51" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y7" s="49" t="inlineStr">
+      <c r="Y7" s="52" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -4662,22 +4678,22 @@
       <c r="B8" s="39" t="n"/>
       <c r="C8" s="39" t="n"/>
       <c r="D8" s="40" t="n"/>
-      <c r="E8" s="51" t="inlineStr">
+      <c r="E8" s="53" t="inlineStr">
         <is>
           <t>51035 Заготовка имплантата LM Nobel Active 3.0 D=3 L=11.5 (арт. 36770) V.1</t>
         </is>
       </c>
-      <c r="F8" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G8" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H8" s="52" t="inlineStr">
+      <c r="F8" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G8" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H8" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -4685,7 +4701,7 @@
       <c r="I8" s="49" t="n">
         <v>234</v>
       </c>
-      <c r="J8" s="53" t="n">
+      <c r="J8" s="55" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="45" t="n">
@@ -4721,12 +4737,12 @@
       <c r="W8" s="46" t="n">
         <v>100</v>
       </c>
-      <c r="X8" s="54" t="inlineStr">
+      <c r="X8" s="56" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y8" s="54" t="inlineStr">
+      <c r="Y8" s="57" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -4737,22 +4753,22 @@
       <c r="B9" s="39" t="n"/>
       <c r="C9" s="39" t="n"/>
       <c r="D9" s="40" t="n"/>
-      <c r="E9" s="51" t="inlineStr">
+      <c r="E9" s="53" t="inlineStr">
         <is>
           <t>51036 Заготовка имплантата LM Nobel Active 3.0 D=3 L=13 (арт. 36771) V.1</t>
         </is>
       </c>
-      <c r="F9" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G9" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H9" s="52" t="inlineStr">
+      <c r="F9" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G9" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H9" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -4760,7 +4776,7 @@
       <c r="I9" s="49" t="n">
         <v>94</v>
       </c>
-      <c r="J9" s="53" t="n">
+      <c r="J9" s="55" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="45" t="n">
@@ -4794,12 +4810,12 @@
       <c r="W9" s="46" t="n">
         <v>50</v>
       </c>
-      <c r="X9" s="46" t="inlineStr">
+      <c r="X9" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y9" s="46" t="inlineStr">
+      <c r="Y9" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -4810,30 +4826,30 @@
       <c r="B10" s="39" t="n"/>
       <c r="C10" s="39" t="n"/>
       <c r="D10" s="40" t="n"/>
-      <c r="E10" s="55" t="inlineStr">
+      <c r="E10" s="60" t="inlineStr">
         <is>
           <t>51037 Заготовка имплантата LM Nobel Active 3.0 D=3 L=15 (арт. 36772) V.1</t>
         </is>
       </c>
-      <c r="F10" s="56" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G10" s="56" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H10" s="56" t="inlineStr">
+      <c r="F10" s="61" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G10" s="61" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H10" s="61" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I10" s="57" t="n">
+      <c r="I10" s="62" t="n">
         <v>91</v>
       </c>
-      <c r="J10" s="58" t="n">
+      <c r="J10" s="63" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="45" t="n">
@@ -4867,12 +4883,12 @@
       <c r="W10" s="46" t="n">
         <v>50</v>
       </c>
-      <c r="X10" s="46" t="inlineStr">
+      <c r="X10" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y10" s="46" t="inlineStr">
+      <c r="Y10" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -4923,17 +4939,17 @@
       </c>
       <c r="S11" s="47" t="inlineStr"/>
       <c r="T11" s="48" t="n"/>
-      <c r="U11" s="59" t="n"/>
+      <c r="U11" s="64" t="n"/>
       <c r="V11" s="45" t="n"/>
       <c r="W11" s="46" t="n">
         <v>300</v>
       </c>
-      <c r="X11" s="46" t="inlineStr">
+      <c r="X11" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y11" s="46" t="inlineStr">
+      <c r="Y11" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -4944,22 +4960,22 @@
       <c r="B12" s="39" t="n"/>
       <c r="C12" s="39" t="n"/>
       <c r="D12" s="40" t="n"/>
-      <c r="E12" s="51" t="inlineStr">
+      <c r="E12" s="53" t="inlineStr">
         <is>
           <t>51039 Заготовка имплантата LM Nobel Active NP (3.5) D=3.5 L=10 (арт. 34125) V.1</t>
         </is>
       </c>
-      <c r="F12" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G12" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H12" s="52" t="inlineStr">
+      <c r="F12" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G12" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H12" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -4967,7 +4983,7 @@
       <c r="I12" s="49" t="n">
         <v>466</v>
       </c>
-      <c r="J12" s="53" t="n">
+      <c r="J12" s="55" t="n">
         <v>58</v>
       </c>
       <c r="K12" s="45" t="n">
@@ -5001,12 +5017,12 @@
       <c r="W12" s="46" t="n">
         <v>350</v>
       </c>
-      <c r="X12" s="46" t="inlineStr">
+      <c r="X12" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y12" s="46" t="inlineStr">
+      <c r="Y12" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -5017,22 +5033,22 @@
       <c r="B13" s="39" t="n"/>
       <c r="C13" s="39" t="n"/>
       <c r="D13" s="40" t="n"/>
-      <c r="E13" s="51" t="inlineStr">
+      <c r="E13" s="53" t="inlineStr">
         <is>
           <t>51040 Заготовка имплантата LM Nobel Active NP (3.5) D=3.5 L=11.5 (арт. 34126) V.1</t>
         </is>
       </c>
-      <c r="F13" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G13" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H13" s="52" t="inlineStr">
+      <c r="F13" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G13" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H13" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -5040,7 +5056,7 @@
       <c r="I13" s="49" t="n">
         <v>642</v>
       </c>
-      <c r="J13" s="53" t="n">
+      <c r="J13" s="55" t="n">
         <v>49</v>
       </c>
       <c r="K13" s="45" t="n">
@@ -5067,7 +5083,7 @@
       <c r="R13" s="46" t="n">
         <v>15</v>
       </c>
-      <c r="S13" s="60" t="inlineStr"/>
+      <c r="S13" s="65" t="inlineStr"/>
       <c r="T13" s="48" t="n">
         <v>103</v>
       </c>
@@ -5076,12 +5092,12 @@
       <c r="W13" s="46" t="n">
         <v>200</v>
       </c>
-      <c r="X13" s="46" t="inlineStr">
+      <c r="X13" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y13" s="46" t="inlineStr">
+      <c r="Y13" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -5092,22 +5108,22 @@
       <c r="B14" s="39" t="n"/>
       <c r="C14" s="39" t="n"/>
       <c r="D14" s="40" t="n"/>
-      <c r="E14" s="51" t="inlineStr">
+      <c r="E14" s="53" t="inlineStr">
         <is>
           <t>51041 Заготовка имплантата LM Nobel Active NP (3.5) D=3.5 L=13 (арт. 34127) V.1</t>
         </is>
       </c>
-      <c r="F14" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G14" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H14" s="52" t="inlineStr">
+      <c r="F14" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G14" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H14" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -5115,7 +5131,7 @@
       <c r="I14" s="49" t="n">
         <v>253</v>
       </c>
-      <c r="J14" s="53" t="n">
+      <c r="J14" s="55" t="n">
         <v>46</v>
       </c>
       <c r="K14" s="45" t="n">
@@ -5149,12 +5165,12 @@
       <c r="W14" s="46" t="n">
         <v>200</v>
       </c>
-      <c r="X14" s="46" t="inlineStr">
+      <c r="X14" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y14" s="46" t="inlineStr">
+      <c r="Y14" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -5165,18 +5181,18 @@
       <c r="B15" s="39" t="n"/>
       <c r="C15" s="39" t="n"/>
       <c r="D15" s="40" t="n"/>
-      <c r="E15" s="51" t="inlineStr">
+      <c r="E15" s="53" t="inlineStr">
         <is>
           <t>51042 Заготовка имплантата LM Nobel Active NP (3.5) D=3.5 L=15 (арт. 34128) V.1</t>
         </is>
       </c>
-      <c r="F15" s="52" t="n"/>
-      <c r="G15" s="52" t="n"/>
-      <c r="H15" s="52" t="n"/>
+      <c r="F15" s="54" t="n"/>
+      <c r="G15" s="54" t="n"/>
+      <c r="H15" s="54" t="n"/>
       <c r="I15" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="53" t="n">
+      <c r="J15" s="55" t="n">
         <v>0</v>
       </c>
       <c r="K15" s="45" t="n">
@@ -5204,18 +5220,20 @@
         <v>0</v>
       </c>
       <c r="S15" s="47" t="n"/>
-      <c r="T15" s="48" t="n"/>
+      <c r="T15" s="48" t="n">
+        <v>195</v>
+      </c>
       <c r="U15" s="49" t="n"/>
       <c r="V15" s="45" t="n"/>
       <c r="W15" s="46" t="n">
         <v>50</v>
       </c>
-      <c r="X15" s="46" t="inlineStr">
+      <c r="X15" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y15" s="46" t="inlineStr">
+      <c r="Y15" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -5226,30 +5244,30 @@
       <c r="B16" s="39" t="n"/>
       <c r="C16" s="39" t="n"/>
       <c r="D16" s="40" t="n"/>
-      <c r="E16" s="61" t="inlineStr">
+      <c r="E16" s="66" t="inlineStr">
         <is>
           <t>51043 Заготовка имплантата LM Nobel Active NP (3.5) D=3.5 L=18 (арт. 35215) V.1</t>
         </is>
       </c>
-      <c r="F16" s="56" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G16" s="56" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H16" s="56" t="inlineStr">
+      <c r="F16" s="61" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G16" s="61" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H16" s="61" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I16" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="58" t="n">
+      <c r="I16" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="63" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="45" t="n">
@@ -5283,12 +5301,12 @@
       <c r="W16" s="46" t="n">
         <v>50</v>
       </c>
-      <c r="X16" s="46" t="inlineStr">
+      <c r="X16" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y16" s="46" t="inlineStr">
+      <c r="Y16" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -5358,12 +5376,12 @@
       <c r="W17" s="46" t="n">
         <v>500</v>
       </c>
-      <c r="X17" s="46" t="inlineStr">
+      <c r="X17" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y17" s="46" t="inlineStr">
+      <c r="Y17" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -5374,22 +5392,22 @@
       <c r="B18" s="39" t="n"/>
       <c r="C18" s="39" t="n"/>
       <c r="D18" s="40" t="n"/>
-      <c r="E18" s="51" t="inlineStr">
+      <c r="E18" s="53" t="inlineStr">
         <is>
           <t>51045 Заготовка имплантата LM Nobel Active RP (4.5) D=4.3 L=10 (арт. 34131) V.1</t>
         </is>
       </c>
-      <c r="F18" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G18" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H18" s="52" t="inlineStr">
+      <c r="F18" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G18" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H18" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -5397,7 +5415,7 @@
       <c r="I18" s="49" t="n">
         <v>323</v>
       </c>
-      <c r="J18" s="53" t="n">
+      <c r="J18" s="55" t="n">
         <v>56</v>
       </c>
       <c r="K18" s="45" t="n">
@@ -5433,12 +5451,12 @@
       <c r="W18" s="46" t="n">
         <v>550</v>
       </c>
-      <c r="X18" s="46" t="inlineStr">
+      <c r="X18" s="67" t="inlineStr">
         <is>
           <t>ожидаем 29.07</t>
         </is>
       </c>
-      <c r="Y18" s="46" t="inlineStr">
+      <c r="Y18" s="67" t="inlineStr">
         <is>
           <t>нет</t>
         </is>
@@ -5449,22 +5467,22 @@
       <c r="B19" s="39" t="n"/>
       <c r="C19" s="39" t="n"/>
       <c r="D19" s="40" t="n"/>
-      <c r="E19" s="51" t="inlineStr">
+      <c r="E19" s="53" t="inlineStr">
         <is>
           <t>51046 Заготовка имплантата LM Nobel Active RP (4.5) D=4.3 L=11.5 (арт. 34132) V.1</t>
         </is>
       </c>
-      <c r="F19" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G19" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H19" s="52" t="inlineStr">
+      <c r="F19" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G19" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H19" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -5472,7 +5490,7 @@
       <c r="I19" s="49" t="n">
         <v>1417</v>
       </c>
-      <c r="J19" s="53" t="n">
+      <c r="J19" s="55" t="n">
         <v>92</v>
       </c>
       <c r="K19" s="45" t="n">
@@ -5506,12 +5524,12 @@
       <c r="W19" s="46" t="n">
         <v>500</v>
       </c>
-      <c r="X19" s="46" t="inlineStr">
+      <c r="X19" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y19" s="46" t="inlineStr">
+      <c r="Y19" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -5522,18 +5540,18 @@
       <c r="B20" s="39" t="n"/>
       <c r="C20" s="39" t="n"/>
       <c r="D20" s="40" t="n"/>
-      <c r="E20" s="51" t="inlineStr">
+      <c r="E20" s="53" t="inlineStr">
         <is>
           <t>51047 Заготовка имплантата LM Nobel Active RP (4.5) D=4.3 L=13 (арт. 34133) V.1</t>
         </is>
       </c>
-      <c r="F20" s="52" t="n"/>
-      <c r="G20" s="52" t="n"/>
-      <c r="H20" s="52" t="n"/>
+      <c r="F20" s="54" t="n"/>
+      <c r="G20" s="54" t="n"/>
+      <c r="H20" s="54" t="n"/>
       <c r="I20" s="49" t="n">
         <v>225</v>
       </c>
-      <c r="J20" s="53" t="n">
+      <c r="J20" s="55" t="n">
         <v>86</v>
       </c>
       <c r="K20" s="45" t="n">
@@ -5569,12 +5587,12 @@
       <c r="W20" s="46" t="n">
         <v>200</v>
       </c>
-      <c r="X20" s="46" t="inlineStr">
+      <c r="X20" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y20" s="46" t="inlineStr">
+      <c r="Y20" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -5585,22 +5603,22 @@
       <c r="B21" s="39" t="n"/>
       <c r="C21" s="39" t="n"/>
       <c r="D21" s="40" t="n"/>
-      <c r="E21" s="51" t="inlineStr">
+      <c r="E21" s="53" t="inlineStr">
         <is>
           <t>51048 Заготовка имплантата LM Nobel Active RP (4.5) D=4.3 L=15 (арт. 34134) V.1</t>
         </is>
       </c>
-      <c r="F21" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G21" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H21" s="52" t="inlineStr">
+      <c r="F21" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G21" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H21" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -5608,7 +5626,7 @@
       <c r="I21" s="49" t="n">
         <v>38</v>
       </c>
-      <c r="J21" s="53" t="n">
+      <c r="J21" s="55" t="n">
         <v>10</v>
       </c>
       <c r="K21" s="45" t="n">
@@ -5642,12 +5660,12 @@
       <c r="W21" s="46" t="n">
         <v>50</v>
       </c>
-      <c r="X21" s="46" t="inlineStr">
+      <c r="X21" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y21" s="46" t="inlineStr">
+      <c r="Y21" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -5658,30 +5676,30 @@
       <c r="B22" s="39" t="n"/>
       <c r="C22" s="39" t="n"/>
       <c r="D22" s="40" t="n"/>
-      <c r="E22" s="62" t="inlineStr">
+      <c r="E22" s="68" t="inlineStr">
         <is>
           <t>51049 Заготовка имплантата LM Nobel Active RP (4.5) D=4.3 L=18 (арт. 35219) V.1</t>
         </is>
       </c>
-      <c r="F22" s="63" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G22" s="63" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H22" s="63" t="inlineStr">
+      <c r="F22" s="69" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G22" s="69" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H22" s="69" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I22" s="64" t="n">
+      <c r="I22" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="65" t="n">
+      <c r="J22" s="71" t="n">
         <v>2</v>
       </c>
       <c r="K22" s="45" t="n">
@@ -5715,12 +5733,12 @@
       <c r="W22" s="46" t="n">
         <v>50</v>
       </c>
-      <c r="X22" s="46" t="inlineStr">
+      <c r="X22" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y22" s="46" t="inlineStr">
+      <c r="Y22" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -5778,12 +5796,12 @@
       <c r="W23" s="46" t="n">
         <v>200</v>
       </c>
-      <c r="X23" s="46" t="inlineStr">
+      <c r="X23" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y23" s="46" t="inlineStr">
+      <c r="Y23" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -5794,18 +5812,18 @@
       <c r="B24" s="39" t="n"/>
       <c r="C24" s="39" t="n"/>
       <c r="D24" s="40" t="n"/>
-      <c r="E24" s="51" t="inlineStr">
+      <c r="E24" s="53" t="inlineStr">
         <is>
           <t>51051 Заготовка имплантата LM Nobel Active RP (4.5) D=5 L=10 (арт. 34137) V.1</t>
         </is>
       </c>
-      <c r="F24" s="52" t="n"/>
-      <c r="G24" s="52" t="n"/>
-      <c r="H24" s="52" t="n"/>
+      <c r="F24" s="54" t="n"/>
+      <c r="G24" s="54" t="n"/>
+      <c r="H24" s="54" t="n"/>
       <c r="I24" s="49" t="n">
         <v>398</v>
       </c>
-      <c r="J24" s="53" t="n">
+      <c r="J24" s="55" t="n">
         <v>10</v>
       </c>
       <c r="K24" s="45" t="n">
@@ -5841,12 +5859,12 @@
       <c r="W24" s="46" t="n">
         <v>250</v>
       </c>
-      <c r="X24" s="46" t="inlineStr">
+      <c r="X24" s="67" t="inlineStr">
         <is>
           <t>ожидаем 29.07</t>
         </is>
       </c>
-      <c r="Y24" s="46" t="inlineStr">
+      <c r="Y24" s="67" t="inlineStr">
         <is>
           <t>нет</t>
         </is>
@@ -5857,18 +5875,18 @@
       <c r="B25" s="39" t="n"/>
       <c r="C25" s="39" t="n"/>
       <c r="D25" s="40" t="n"/>
-      <c r="E25" s="51" t="inlineStr">
+      <c r="E25" s="53" t="inlineStr">
         <is>
           <t>51052 Заготовка имплантата LM Nobel Active RP (4.5) D=5 L=11.5 (арт. 34138) V.1</t>
         </is>
       </c>
-      <c r="F25" s="52" t="n"/>
-      <c r="G25" s="52" t="n"/>
-      <c r="H25" s="52" t="n"/>
+      <c r="F25" s="54" t="n"/>
+      <c r="G25" s="54" t="n"/>
+      <c r="H25" s="54" t="n"/>
       <c r="I25" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="53" t="n">
+      <c r="J25" s="55" t="n">
         <v>0</v>
       </c>
       <c r="K25" s="45" t="n">
@@ -5896,18 +5914,20 @@
         <v>0</v>
       </c>
       <c r="S25" s="47" t="n"/>
-      <c r="T25" s="48" t="n"/>
+      <c r="T25" s="48" t="n">
+        <v>242</v>
+      </c>
       <c r="U25" s="49" t="n"/>
       <c r="V25" s="45" t="n"/>
       <c r="W25" s="46" t="n">
         <v>100</v>
       </c>
-      <c r="X25" s="46" t="inlineStr">
+      <c r="X25" s="67" t="inlineStr">
         <is>
           <t>ожидаем 29.07</t>
         </is>
       </c>
-      <c r="Y25" s="46" t="inlineStr">
+      <c r="Y25" s="67" t="inlineStr">
         <is>
           <t>нет</t>
         </is>
@@ -5918,18 +5938,18 @@
       <c r="B26" s="39" t="n"/>
       <c r="C26" s="39" t="n"/>
       <c r="D26" s="40" t="n"/>
-      <c r="E26" s="66" t="inlineStr">
+      <c r="E26" s="72" t="inlineStr">
         <is>
           <t>51053 Заготовка имплантата LM Nobel Active RP (4.5) D=5 L=13 (арт. 34139) V.1</t>
         </is>
       </c>
-      <c r="F26" s="52" t="n"/>
-      <c r="G26" s="52" t="n"/>
-      <c r="H26" s="52" t="n"/>
+      <c r="F26" s="54" t="n"/>
+      <c r="G26" s="54" t="n"/>
+      <c r="H26" s="54" t="n"/>
       <c r="I26" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="53" t="n">
+      <c r="J26" s="55" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="45" t="n">
@@ -5963,12 +5983,12 @@
       <c r="W26" s="46" t="n">
         <v>50</v>
       </c>
-      <c r="X26" s="46" t="inlineStr">
+      <c r="X26" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y26" s="46" t="inlineStr">
+      <c r="Y26" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -5979,18 +5999,18 @@
       <c r="B27" s="39" t="n"/>
       <c r="C27" s="39" t="n"/>
       <c r="D27" s="40" t="n"/>
-      <c r="E27" s="66" t="inlineStr">
+      <c r="E27" s="72" t="inlineStr">
         <is>
           <t>51054 Заготовка имплантата LM Nobel Active RP (4.5) D=5 L=15 (арт. 34140) V.1</t>
         </is>
       </c>
-      <c r="F27" s="52" t="n"/>
-      <c r="G27" s="52" t="n"/>
-      <c r="H27" s="52" t="n"/>
+      <c r="F27" s="54" t="n"/>
+      <c r="G27" s="54" t="n"/>
+      <c r="H27" s="54" t="n"/>
       <c r="I27" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="53" t="n">
+      <c r="J27" s="55" t="n">
         <v>0</v>
       </c>
       <c r="K27" s="45" t="n">
@@ -6024,12 +6044,12 @@
       <c r="W27" s="46" t="n">
         <v>50</v>
       </c>
-      <c r="X27" s="46" t="inlineStr">
+      <c r="X27" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y27" s="46" t="inlineStr">
+      <c r="Y27" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -6040,18 +6060,18 @@
       <c r="B28" s="39" t="n"/>
       <c r="C28" s="39" t="n"/>
       <c r="D28" s="40" t="n"/>
-      <c r="E28" s="61" t="inlineStr">
+      <c r="E28" s="66" t="inlineStr">
         <is>
           <t>51055 Заготовка имплантата LM Nobel Active RP (4.5) D=5 L=18 (арт. 35220) V.1</t>
         </is>
       </c>
-      <c r="F28" s="56" t="n"/>
-      <c r="G28" s="56" t="n"/>
-      <c r="H28" s="56" t="n"/>
-      <c r="I28" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="58" t="n">
+      <c r="F28" s="61" t="n"/>
+      <c r="G28" s="61" t="n"/>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="63" t="n">
         <v>0</v>
       </c>
       <c r="K28" s="45" t="n">
@@ -6085,12 +6105,12 @@
       <c r="W28" s="46" t="n">
         <v>50</v>
       </c>
-      <c r="X28" s="46" t="inlineStr">
+      <c r="X28" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y28" s="46" t="inlineStr">
+      <c r="Y28" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -6101,7 +6121,7 @@
       <c r="B29" s="39" t="n"/>
       <c r="C29" s="39" t="n"/>
       <c r="D29" s="40" t="n"/>
-      <c r="E29" s="67" t="inlineStr">
+      <c r="E29" s="73" t="inlineStr">
         <is>
           <t>51056 Заготовка имплантата LM Nobel Active WP (5.5) D=5.5 L=6.5 (арт. 37806) V.1</t>
         </is>
@@ -6146,12 +6166,12 @@
       <c r="W29" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="X29" s="46" t="inlineStr">
+      <c r="X29" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y29" s="46" t="inlineStr">
+      <c r="Y29" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -6162,18 +6182,18 @@
       <c r="B30" s="39" t="n"/>
       <c r="C30" s="39" t="n"/>
       <c r="D30" s="40" t="n"/>
-      <c r="E30" s="66" t="inlineStr">
+      <c r="E30" s="72" t="inlineStr">
         <is>
           <t>51057 Заготовка имплантата LM Nobel Active WP (5.5) D=5.5 L=8 (арт. 37807) V.1</t>
         </is>
       </c>
-      <c r="F30" s="52" t="n"/>
-      <c r="G30" s="52" t="n"/>
-      <c r="H30" s="52" t="n"/>
+      <c r="F30" s="54" t="n"/>
+      <c r="G30" s="54" t="n"/>
+      <c r="H30" s="54" t="n"/>
       <c r="I30" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="J30" s="53" t="n">
+      <c r="J30" s="55" t="n">
         <v>0</v>
       </c>
       <c r="K30" s="45" t="n">
@@ -6207,12 +6227,12 @@
       <c r="W30" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="X30" s="46" t="inlineStr">
+      <c r="X30" s="67" t="inlineStr">
         <is>
           <t>отсуствует</t>
         </is>
       </c>
-      <c r="Y30" s="46" t="inlineStr">
+      <c r="Y30" s="67" t="inlineStr">
         <is>
           <t>нет</t>
         </is>
@@ -6223,18 +6243,18 @@
       <c r="B31" s="39" t="n"/>
       <c r="C31" s="39" t="n"/>
       <c r="D31" s="40" t="n"/>
-      <c r="E31" s="66" t="inlineStr">
+      <c r="E31" s="72" t="inlineStr">
         <is>
           <t>51058 Заготовка имплантата LM Nobel Active WP (5.5) D=5.5 L=9.5 (арт. 37808) V.1</t>
         </is>
       </c>
-      <c r="F31" s="52" t="n"/>
-      <c r="G31" s="52" t="n"/>
-      <c r="H31" s="52" t="n"/>
+      <c r="F31" s="54" t="n"/>
+      <c r="G31" s="54" t="n"/>
+      <c r="H31" s="54" t="n"/>
       <c r="I31" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="J31" s="53" t="n">
+      <c r="J31" s="55" t="n">
         <v>0</v>
       </c>
       <c r="K31" s="45" t="n">
@@ -6268,12 +6288,12 @@
       <c r="W31" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="X31" s="46" t="inlineStr">
+      <c r="X31" s="67" t="inlineStr">
         <is>
           <t>отсуствует</t>
         </is>
       </c>
-      <c r="Y31" s="46" t="inlineStr">
+      <c r="Y31" s="67" t="inlineStr">
         <is>
           <t>нет</t>
         </is>
@@ -6284,18 +6304,18 @@
       <c r="B32" s="39" t="n"/>
       <c r="C32" s="39" t="n"/>
       <c r="D32" s="40" t="n"/>
-      <c r="E32" s="66" t="inlineStr">
+      <c r="E32" s="72" t="inlineStr">
         <is>
           <t>51059 Заготовка имплантата LM Nobel Active WP (5.5) D=5.5 L=11 (арт. 37809) V.1</t>
         </is>
       </c>
-      <c r="F32" s="52" t="n"/>
-      <c r="G32" s="52" t="n"/>
-      <c r="H32" s="52" t="n"/>
+      <c r="F32" s="54" t="n"/>
+      <c r="G32" s="54" t="n"/>
+      <c r="H32" s="54" t="n"/>
       <c r="I32" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="J32" s="53" t="n">
+      <c r="J32" s="55" t="n">
         <v>0</v>
       </c>
       <c r="K32" s="45" t="n">
@@ -6329,12 +6349,12 @@
       <c r="W32" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="X32" s="46" t="inlineStr">
+      <c r="X32" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y32" s="46" t="inlineStr">
+      <c r="Y32" s="59" t="inlineStr">
         <is>
           <t>в разработке</t>
         </is>
@@ -6345,18 +6365,18 @@
       <c r="B33" s="39" t="n"/>
       <c r="C33" s="39" t="n"/>
       <c r="D33" s="40" t="n"/>
-      <c r="E33" s="66" t="inlineStr">
+      <c r="E33" s="72" t="inlineStr">
         <is>
           <t>51060 Заготовка имплантата LM Nobel Active WP (5.5) D=5.5 L=12.5 (арт. 37810) V.1</t>
         </is>
       </c>
-      <c r="F33" s="52" t="n"/>
-      <c r="G33" s="52" t="n"/>
-      <c r="H33" s="52" t="n"/>
+      <c r="F33" s="54" t="n"/>
+      <c r="G33" s="54" t="n"/>
+      <c r="H33" s="54" t="n"/>
       <c r="I33" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="J33" s="53" t="n">
+      <c r="J33" s="55" t="n">
         <v>0</v>
       </c>
       <c r="K33" s="45" t="n">
@@ -6390,12 +6410,12 @@
       <c r="W33" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="X33" s="46" t="inlineStr">
+      <c r="X33" s="67" t="inlineStr">
         <is>
           <t>отсуствует</t>
         </is>
       </c>
-      <c r="Y33" s="46" t="inlineStr">
+      <c r="Y33" s="67" t="inlineStr">
         <is>
           <t>нет</t>
         </is>
@@ -6406,18 +6426,18 @@
       <c r="B34" s="39" t="n"/>
       <c r="C34" s="39" t="n"/>
       <c r="D34" s="40" t="n"/>
-      <c r="E34" s="61" t="inlineStr">
+      <c r="E34" s="66" t="inlineStr">
         <is>
           <t>51061 Заготовка имплантата LM Nobel Active WP (5.5) D=5.5 L=14.5 (арт. 37811) V.1</t>
         </is>
       </c>
-      <c r="F34" s="56" t="n"/>
-      <c r="G34" s="56" t="n"/>
-      <c r="H34" s="56" t="n"/>
-      <c r="I34" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="58" t="n">
+      <c r="F34" s="61" t="n"/>
+      <c r="G34" s="61" t="n"/>
+      <c r="H34" s="61" t="n"/>
+      <c r="I34" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="63" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="45" t="n">
@@ -6451,12 +6471,12 @@
       <c r="W34" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="X34" s="46" t="inlineStr">
+      <c r="X34" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y34" s="46" t="inlineStr">
+      <c r="Y34" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -6467,12 +6487,12 @@
       <c r="B35" s="39" t="n"/>
       <c r="C35" s="39" t="n"/>
       <c r="D35" s="40" t="n"/>
-      <c r="E35" s="68" t="n"/>
-      <c r="F35" s="68" t="n"/>
-      <c r="G35" s="68" t="n"/>
-      <c r="H35" s="68" t="n"/>
-      <c r="I35" s="69" t="n"/>
-      <c r="J35" s="69" t="n"/>
+      <c r="E35" s="74" t="n"/>
+      <c r="F35" s="74" t="n"/>
+      <c r="G35" s="74" t="n"/>
+      <c r="H35" s="74" t="n"/>
+      <c r="I35" s="75" t="n"/>
+      <c r="J35" s="75" t="n"/>
       <c r="K35" s="45" t="n"/>
       <c r="L35" s="46" t="n"/>
       <c r="M35" s="46" t="n"/>
@@ -6481,7 +6501,7 @@
       <c r="P35" s="46" t="n"/>
       <c r="Q35" s="46" t="n"/>
       <c r="R35" s="46" t="n"/>
-      <c r="S35" s="60" t="n"/>
+      <c r="S35" s="65" t="n"/>
       <c r="T35" s="10" t="n"/>
       <c r="U35" s="49" t="n"/>
       <c r="V35" s="45" t="n"/>
@@ -6494,22 +6514,22 @@
       <c r="B36" s="39" t="n"/>
       <c r="C36" s="39" t="n"/>
       <c r="D36" s="40" t="n"/>
-      <c r="E36" s="70" t="inlineStr">
+      <c r="E36" s="76" t="inlineStr">
         <is>
           <t>62002 Держатель для постмашинной обработки имплантатов Nobel Active 3.0 LM</t>
         </is>
       </c>
-      <c r="F36" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G36" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H36" s="52" t="inlineStr">
+      <c r="F36" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G36" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H36" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -6544,19 +6564,19 @@
       <c r="R36" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S36" s="60" t="inlineStr"/>
+      <c r="S36" s="65" t="inlineStr"/>
       <c r="T36" s="10" t="n"/>
       <c r="U36" s="49" t="n"/>
       <c r="V36" s="45" t="n"/>
       <c r="W36" s="46" t="n">
         <v>300</v>
       </c>
-      <c r="X36" s="46" t="inlineStr">
+      <c r="X36" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y36" s="46" t="inlineStr">
+      <c r="Y36" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -6567,22 +6587,22 @@
       <c r="B37" s="39" t="n"/>
       <c r="C37" s="39" t="n"/>
       <c r="D37" s="40" t="n"/>
-      <c r="E37" s="71" t="inlineStr">
+      <c r="E37" s="77" t="inlineStr">
         <is>
           <t>62003 Держатель для постмашинной обработки имплантатов Nobel Active NP LM</t>
         </is>
       </c>
-      <c r="F37" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G37" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H37" s="52" t="inlineStr">
+      <c r="F37" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G37" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H37" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -6617,17 +6637,17 @@
       <c r="R37" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S37" s="60" t="n"/>
+      <c r="S37" s="65" t="n"/>
       <c r="T37" s="10" t="n"/>
       <c r="U37" s="49" t="n"/>
       <c r="V37" s="45" t="n"/>
       <c r="W37" s="46" t="n"/>
-      <c r="X37" s="46" t="inlineStr">
+      <c r="X37" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y37" s="46" t="inlineStr">
+      <c r="Y37" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -6638,22 +6658,22 @@
       <c r="B38" s="39" t="n"/>
       <c r="C38" s="39" t="n"/>
       <c r="D38" s="40" t="n"/>
-      <c r="E38" s="70" t="inlineStr">
+      <c r="E38" s="76" t="inlineStr">
         <is>
           <t>62004 Держатель для постмашинной обработки имплантатов Nobel Active RP LM</t>
         </is>
       </c>
-      <c r="F38" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G38" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H38" s="52" t="inlineStr">
+      <c r="F38" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G38" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H38" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -6688,17 +6708,17 @@
       <c r="R38" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S38" s="60" t="inlineStr"/>
+      <c r="S38" s="65" t="inlineStr"/>
       <c r="T38" s="10" t="n"/>
       <c r="U38" s="49" t="n"/>
       <c r="V38" s="45" t="n"/>
       <c r="W38" s="46" t="n"/>
-      <c r="X38" s="46" t="inlineStr">
+      <c r="X38" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y38" s="46" t="inlineStr">
+      <c r="Y38" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -6709,22 +6729,22 @@
       <c r="B39" s="39" t="n"/>
       <c r="C39" s="39" t="n"/>
       <c r="D39" s="40" t="n"/>
-      <c r="E39" s="70" t="inlineStr">
+      <c r="E39" s="76" t="inlineStr">
         <is>
           <t>62007 Держатель для постмашинной обработки имплантатов Nobel Active WP LM</t>
         </is>
       </c>
-      <c r="F39" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G39" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H39" s="52" t="inlineStr">
+      <c r="F39" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G39" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H39" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -6759,17 +6779,17 @@
       <c r="R39" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S39" s="60" t="inlineStr"/>
+      <c r="S39" s="65" t="inlineStr"/>
       <c r="T39" s="10" t="n"/>
       <c r="U39" s="49" t="n"/>
       <c r="V39" s="45" t="n"/>
       <c r="W39" s="46" t="n"/>
-      <c r="X39" s="46" t="inlineStr">
+      <c r="X39" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y39" s="46" t="inlineStr">
+      <c r="Y39" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -6780,10 +6800,10 @@
       <c r="B40" s="39" t="n"/>
       <c r="C40" s="39" t="n"/>
       <c r="D40" s="40" t="n"/>
-      <c r="E40" s="70" t="n"/>
-      <c r="F40" s="52" t="n"/>
-      <c r="G40" s="52" t="n"/>
-      <c r="H40" s="52" t="n"/>
+      <c r="E40" s="76" t="n"/>
+      <c r="F40" s="54" t="n"/>
+      <c r="G40" s="54" t="n"/>
+      <c r="H40" s="54" t="n"/>
       <c r="I40" s="49" t="n"/>
       <c r="J40" s="49" t="n"/>
       <c r="K40" s="45" t="n"/>
@@ -6794,7 +6814,7 @@
       <c r="P40" s="46" t="n"/>
       <c r="Q40" s="46" t="n"/>
       <c r="R40" s="46" t="n"/>
-      <c r="S40" s="60" t="n"/>
+      <c r="S40" s="65" t="n"/>
       <c r="T40" s="10" t="n"/>
       <c r="U40" s="49" t="n"/>
       <c r="V40" s="45" t="n"/>
@@ -6807,22 +6827,22 @@
       <c r="B41" s="39" t="n"/>
       <c r="C41" s="39" t="n"/>
       <c r="D41" s="40" t="n"/>
-      <c r="E41" s="70" t="inlineStr">
+      <c r="E41" s="76" t="inlineStr">
         <is>
           <t>63002 Винт для держателя имплантатов Nobel Active 3.0 LM</t>
         </is>
       </c>
-      <c r="F41" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G41" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H41" s="52" t="inlineStr">
+      <c r="F41" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G41" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H41" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -6857,19 +6877,19 @@
       <c r="R41" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S41" s="60" t="n"/>
+      <c r="S41" s="65" t="n"/>
       <c r="T41" s="10" t="n"/>
       <c r="U41" s="49" t="n"/>
       <c r="V41" s="45" t="n"/>
       <c r="W41" s="46" t="n">
         <v>300</v>
       </c>
-      <c r="X41" s="46" t="inlineStr">
+      <c r="X41" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y41" s="46" t="inlineStr">
+      <c r="Y41" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -6880,22 +6900,22 @@
       <c r="B42" s="39" t="n"/>
       <c r="C42" s="39" t="n"/>
       <c r="D42" s="40" t="n"/>
-      <c r="E42" s="70" t="inlineStr">
+      <c r="E42" s="76" t="inlineStr">
         <is>
           <t>63003 Винт для держателя имплантатов Nobel Active NP LM</t>
         </is>
       </c>
-      <c r="F42" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G42" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H42" s="52" t="inlineStr">
+      <c r="F42" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G42" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H42" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -6930,17 +6950,17 @@
       <c r="R42" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S42" s="60" t="inlineStr"/>
+      <c r="S42" s="65" t="inlineStr"/>
       <c r="T42" s="10" t="n"/>
       <c r="U42" s="49" t="n"/>
       <c r="V42" s="45" t="n"/>
       <c r="W42" s="46" t="n"/>
-      <c r="X42" s="46" t="inlineStr">
+      <c r="X42" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y42" s="46" t="inlineStr">
+      <c r="Y42" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -6951,22 +6971,22 @@
       <c r="B43" s="39" t="n"/>
       <c r="C43" s="39" t="n"/>
       <c r="D43" s="40" t="n"/>
-      <c r="E43" s="71" t="inlineStr">
+      <c r="E43" s="77" t="inlineStr">
         <is>
           <t>63004 Винт для держателя имплантатов Nobel Active RP LM</t>
         </is>
       </c>
-      <c r="F43" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G43" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H43" s="52" t="inlineStr">
+      <c r="F43" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G43" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H43" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -7001,17 +7021,17 @@
       <c r="R43" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S43" s="60" t="n"/>
+      <c r="S43" s="65" t="n"/>
       <c r="T43" s="10" t="n"/>
       <c r="U43" s="49" t="n"/>
       <c r="V43" s="45" t="n"/>
       <c r="W43" s="46" t="n"/>
-      <c r="X43" s="46" t="inlineStr">
+      <c r="X43" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y43" s="46" t="inlineStr">
+      <c r="Y43" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -7022,10 +7042,10 @@
       <c r="B44" s="39" t="n"/>
       <c r="C44" s="39" t="n"/>
       <c r="D44" s="40" t="n"/>
-      <c r="E44" s="70" t="n"/>
-      <c r="F44" s="52" t="n"/>
-      <c r="G44" s="52" t="n"/>
-      <c r="H44" s="52" t="n"/>
+      <c r="E44" s="76" t="n"/>
+      <c r="F44" s="54" t="n"/>
+      <c r="G44" s="54" t="n"/>
+      <c r="H44" s="54" t="n"/>
       <c r="I44" s="49" t="n"/>
       <c r="J44" s="49" t="n"/>
       <c r="K44" s="45" t="n"/>
@@ -7036,7 +7056,7 @@
       <c r="P44" s="46" t="n"/>
       <c r="Q44" s="46" t="n"/>
       <c r="R44" s="46" t="n"/>
-      <c r="S44" s="60" t="n"/>
+      <c r="S44" s="65" t="n"/>
       <c r="T44" s="10" t="n"/>
       <c r="U44" s="49" t="n"/>
       <c r="V44" s="45" t="n"/>
@@ -7049,14 +7069,14 @@
       <c r="B45" s="39" t="n"/>
       <c r="C45" s="39" t="n"/>
       <c r="D45" s="40" t="n"/>
-      <c r="E45" s="70" t="inlineStr">
+      <c r="E45" s="76" t="inlineStr">
         <is>
           <t>61028 Штатный имплантовод LM Nobel Active NP(D3.5), LM Nobel Conical Connection NP(D3.5)</t>
         </is>
       </c>
-      <c r="F45" s="52" t="n"/>
-      <c r="G45" s="52" t="n"/>
-      <c r="H45" s="52" t="n"/>
+      <c r="F45" s="54" t="n"/>
+      <c r="G45" s="54" t="n"/>
+      <c r="H45" s="54" t="n"/>
       <c r="I45" s="49" t="n">
         <v>1000</v>
       </c>
@@ -7087,19 +7107,19 @@
       <c r="R45" s="46" t="n">
         <v>41</v>
       </c>
-      <c r="S45" s="60" t="inlineStr"/>
+      <c r="S45" s="65" t="inlineStr"/>
       <c r="T45" s="10" t="n"/>
       <c r="U45" s="49" t="n"/>
       <c r="V45" s="45" t="n"/>
       <c r="W45" s="46" t="n">
         <v>1150</v>
       </c>
-      <c r="X45" s="46" t="inlineStr">
+      <c r="X45" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y45" s="46" t="inlineStr">
+      <c r="Y45" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -7110,22 +7130,22 @@
       <c r="B46" s="39" t="n"/>
       <c r="C46" s="39" t="n"/>
       <c r="D46" s="40" t="n"/>
-      <c r="E46" s="70" t="inlineStr">
+      <c r="E46" s="76" t="inlineStr">
         <is>
           <t>61029 Штатный имплантовод LM Nobel Active RP(D4.3),(D5.0), LM Nobel Conical Connection RP(D4.3),(D5.0)</t>
         </is>
       </c>
-      <c r="F46" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G46" s="52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H46" s="52" t="inlineStr">
+      <c r="F46" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G46" s="54" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H46" s="54" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -7160,19 +7180,19 @@
       <c r="R46" s="46" t="n">
         <v>65</v>
       </c>
-      <c r="S46" s="60" t="inlineStr"/>
+      <c r="S46" s="65" t="inlineStr"/>
       <c r="T46" s="10" t="n"/>
       <c r="U46" s="49" t="n"/>
       <c r="V46" s="45" t="n"/>
       <c r="W46" s="46" t="n">
         <v>2550</v>
       </c>
-      <c r="X46" s="46" t="inlineStr">
+      <c r="X46" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y46" s="46" t="inlineStr">
+      <c r="Y46" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -7183,14 +7203,14 @@
       <c r="B47" s="39" t="n"/>
       <c r="C47" s="39" t="n"/>
       <c r="D47" s="40" t="n"/>
-      <c r="E47" s="70" t="inlineStr">
+      <c r="E47" s="76" t="inlineStr">
         <is>
           <t>61030 Штатный имплантовод LM Nobel Active WP(D5.5)</t>
         </is>
       </c>
-      <c r="F47" s="52" t="n"/>
-      <c r="G47" s="52" t="n"/>
-      <c r="H47" s="52" t="n"/>
+      <c r="F47" s="54" t="n"/>
+      <c r="G47" s="54" t="n"/>
+      <c r="H47" s="54" t="n"/>
       <c r="I47" s="49" t="n">
         <v>2126</v>
       </c>
@@ -7221,17 +7241,17 @@
       <c r="R47" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S47" s="60" t="inlineStr"/>
+      <c r="S47" s="65" t="inlineStr"/>
       <c r="T47" s="10" t="n"/>
       <c r="U47" s="49" t="n"/>
       <c r="V47" s="45" t="n"/>
       <c r="W47" s="46" t="n"/>
-      <c r="X47" s="46" t="inlineStr">
+      <c r="X47" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y47" s="46" t="inlineStr">
+      <c r="Y47" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -7242,14 +7262,14 @@
       <c r="B48" s="39" t="n"/>
       <c r="C48" s="39" t="n"/>
       <c r="D48" s="40" t="n"/>
-      <c r="E48" s="70" t="inlineStr">
+      <c r="E48" s="76" t="inlineStr">
         <is>
           <t>61039 Штатный имплантовод Nobel Active 3.0</t>
         </is>
       </c>
-      <c r="F48" s="52" t="n"/>
-      <c r="G48" s="52" t="n"/>
-      <c r="H48" s="52" t="n"/>
+      <c r="F48" s="54" t="n"/>
+      <c r="G48" s="54" t="n"/>
+      <c r="H48" s="54" t="n"/>
       <c r="I48" s="49" t="n">
         <v>1239</v>
       </c>
@@ -7280,19 +7300,19 @@
       <c r="R48" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S48" s="60" t="inlineStr"/>
+      <c r="S48" s="65" t="inlineStr"/>
       <c r="T48" s="10" t="n"/>
       <c r="U48" s="49" t="n"/>
       <c r="V48" s="45" t="n"/>
       <c r="W48" s="46" t="n">
         <v>300</v>
       </c>
-      <c r="X48" s="46" t="inlineStr">
+      <c r="X48" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y48" s="46" t="inlineStr">
+      <c r="Y48" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -7303,14 +7323,14 @@
       <c r="B49" s="39" t="n"/>
       <c r="C49" s="39" t="n"/>
       <c r="D49" s="40" t="n"/>
-      <c r="E49" s="70" t="inlineStr">
+      <c r="E49" s="76" t="inlineStr">
         <is>
           <t>63502 Винт имплантовода Nobel Active 3.0 LM</t>
         </is>
       </c>
-      <c r="F49" s="52" t="n"/>
-      <c r="G49" s="52" t="n"/>
-      <c r="H49" s="52" t="n"/>
+      <c r="F49" s="54" t="n"/>
+      <c r="G49" s="54" t="n"/>
+      <c r="H49" s="54" t="n"/>
       <c r="I49" s="49" t="n">
         <v>0</v>
       </c>
@@ -7341,19 +7361,19 @@
       <c r="R49" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S49" s="60" t="inlineStr"/>
+      <c r="S49" s="65" t="inlineStr"/>
       <c r="T49" s="10" t="n"/>
       <c r="U49" s="49" t="n"/>
       <c r="V49" s="45" t="n"/>
       <c r="W49" s="46" t="n">
         <v>300</v>
       </c>
-      <c r="X49" s="46" t="inlineStr">
+      <c r="X49" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y49" s="46" t="inlineStr">
+      <c r="Y49" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -7364,14 +7384,14 @@
       <c r="B50" s="39" t="n"/>
       <c r="C50" s="39" t="n"/>
       <c r="D50" s="40" t="n"/>
-      <c r="E50" s="71" t="inlineStr">
+      <c r="E50" s="77" t="inlineStr">
         <is>
           <t>50004 Винт-заглушка иплантатов Nobel Active 3.0 LM</t>
         </is>
       </c>
-      <c r="F50" s="52" t="n"/>
-      <c r="G50" s="52" t="n"/>
-      <c r="H50" s="52" t="n"/>
+      <c r="F50" s="54" t="n"/>
+      <c r="G50" s="54" t="n"/>
+      <c r="H50" s="54" t="n"/>
       <c r="I50" s="49" t="n">
         <v>0</v>
       </c>
@@ -7402,19 +7422,19 @@
       <c r="R50" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S50" s="60" t="n"/>
+      <c r="S50" s="65" t="n"/>
       <c r="T50" s="10" t="n"/>
       <c r="U50" s="49" t="n"/>
       <c r="V50" s="45" t="n"/>
       <c r="W50" s="46" t="n">
         <v>300</v>
       </c>
-      <c r="X50" s="46" t="inlineStr">
+      <c r="X50" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y50" s="46" t="inlineStr">
+      <c r="Y50" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -7425,10 +7445,10 @@
       <c r="B51" s="39" t="n"/>
       <c r="C51" s="39" t="n"/>
       <c r="D51" s="40" t="n"/>
-      <c r="E51" s="70" t="n"/>
-      <c r="F51" s="52" t="n"/>
-      <c r="G51" s="52" t="n"/>
-      <c r="H51" s="52" t="n"/>
+      <c r="E51" s="76" t="n"/>
+      <c r="F51" s="54" t="n"/>
+      <c r="G51" s="54" t="n"/>
+      <c r="H51" s="54" t="n"/>
       <c r="I51" s="49" t="n"/>
       <c r="J51" s="49" t="n"/>
       <c r="K51" s="45" t="n"/>
@@ -7439,7 +7459,7 @@
       <c r="P51" s="46" t="n"/>
       <c r="Q51" s="46" t="n"/>
       <c r="R51" s="46" t="n"/>
-      <c r="S51" s="60" t="n"/>
+      <c r="S51" s="65" t="n"/>
       <c r="T51" s="10" t="n"/>
       <c r="U51" s="49" t="n"/>
       <c r="V51" s="45" t="n"/>
@@ -7452,14 +7472,14 @@
       <c r="B52" s="39" t="n"/>
       <c r="C52" s="39" t="n"/>
       <c r="D52" s="40" t="n"/>
-      <c r="E52" s="70" t="inlineStr">
+      <c r="E52" s="76" t="inlineStr">
         <is>
           <t>63508 Винт штатного адаптера Nobel Active NP/ LM Nobel Conical Connection NP</t>
         </is>
       </c>
-      <c r="F52" s="52" t="n"/>
-      <c r="G52" s="52" t="n"/>
-      <c r="H52" s="52" t="n"/>
+      <c r="F52" s="54" t="n"/>
+      <c r="G52" s="54" t="n"/>
+      <c r="H52" s="54" t="n"/>
       <c r="I52" s="49" t="n">
         <v>4964</v>
       </c>
@@ -7490,19 +7510,19 @@
       <c r="R52" s="46" t="n">
         <v>41</v>
       </c>
-      <c r="S52" s="60" t="inlineStr"/>
+      <c r="S52" s="65" t="inlineStr"/>
       <c r="T52" s="10" t="n"/>
       <c r="U52" s="49" t="n"/>
       <c r="V52" s="45" t="n"/>
       <c r="W52" s="46" t="n">
         <v>1150</v>
       </c>
-      <c r="X52" s="46" t="inlineStr">
+      <c r="X52" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y52" s="46" t="inlineStr">
+      <c r="Y52" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -7513,45 +7533,45 @@
       <c r="B53" s="39" t="n"/>
       <c r="C53" s="39" t="n"/>
       <c r="D53" s="40" t="n"/>
-      <c r="E53" s="72" t="inlineStr">
+      <c r="E53" s="78" t="inlineStr">
         <is>
           <t>63509 Винт имплантовода LM Nobel Active RP,WP/ LM Nobel Conical Connection RP</t>
         </is>
       </c>
-      <c r="F53" s="63" t="n"/>
-      <c r="G53" s="63" t="n"/>
-      <c r="H53" s="63" t="n"/>
-      <c r="I53" s="64" t="n">
+      <c r="F53" s="69" t="n"/>
+      <c r="G53" s="69" t="n"/>
+      <c r="H53" s="69" t="n"/>
+      <c r="I53" s="70" t="n">
         <v>100</v>
       </c>
-      <c r="J53" s="64" t="n">
+      <c r="J53" s="70" t="n">
         <v>316</v>
       </c>
-      <c r="K53" s="73" t="n">
+      <c r="K53" s="79" t="n">
         <v>100</v>
       </c>
-      <c r="L53" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="74" t="n">
+      <c r="L53" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="80" t="n">
         <v>251</v>
       </c>
-      <c r="O53" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="74" t="n">
+      <c r="O53" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="80" t="n">
         <v>65</v>
       </c>
-      <c r="S53" s="60" t="inlineStr">
+      <c r="S53" s="65" t="inlineStr">
         <is>
           <t>07.02</t>
         </is>
@@ -7559,17 +7579,17 @@
       <c r="T53" s="10" t="n">
         <v>4552</v>
       </c>
-      <c r="U53" s="64" t="n"/>
-      <c r="V53" s="73" t="n"/>
+      <c r="U53" s="70" t="n"/>
+      <c r="V53" s="79" t="n"/>
       <c r="W53" s="46" t="n">
         <v>2550</v>
       </c>
-      <c r="X53" s="46" t="inlineStr">
+      <c r="X53" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y53" s="46" t="inlineStr">
+      <c r="Y53" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -7580,14 +7600,14 @@
       <c r="B54" s="39" t="n"/>
       <c r="C54" s="39" t="n"/>
       <c r="D54" s="40" t="n"/>
-      <c r="E54" s="70" t="inlineStr">
+      <c r="E54" s="76" t="inlineStr">
         <is>
           <t>50005 Винт-заглушка имплантата LM Nobel Active NP (3.5) (арт. 36649) V.1</t>
         </is>
       </c>
-      <c r="F54" s="52" t="n"/>
-      <c r="G54" s="52" t="n"/>
-      <c r="H54" s="52" t="n"/>
+      <c r="F54" s="54" t="n"/>
+      <c r="G54" s="54" t="n"/>
+      <c r="H54" s="54" t="n"/>
       <c r="I54" s="49" t="n">
         <v>1090</v>
       </c>
@@ -7618,7 +7638,7 @@
       <c r="R54" s="49" t="n">
         <v>41</v>
       </c>
-      <c r="S54" s="60" t="inlineStr"/>
+      <c r="S54" s="65" t="inlineStr"/>
       <c r="T54" s="10" t="n"/>
       <c r="U54" s="49" t="n"/>
       <c r="V54" s="49" t="n"/>
@@ -7633,14 +7653,14 @@
       <c r="B55" s="39" t="n"/>
       <c r="C55" s="39" t="n"/>
       <c r="D55" s="40" t="n"/>
-      <c r="E55" s="70" t="inlineStr">
+      <c r="E55" s="76" t="inlineStr">
         <is>
           <t>50006 Винт-заглушка имплантата LM Nobel Active RP (4.5) (арт. 36650) V.1</t>
         </is>
       </c>
-      <c r="F55" s="52" t="n"/>
-      <c r="G55" s="52" t="n"/>
-      <c r="H55" s="52" t="n"/>
+      <c r="F55" s="54" t="n"/>
+      <c r="G55" s="54" t="n"/>
+      <c r="H55" s="54" t="n"/>
       <c r="I55" s="49" t="n">
         <v>1932</v>
       </c>
@@ -7671,90 +7691,90 @@
       <c r="R55" s="49" t="n">
         <v>65</v>
       </c>
-      <c r="S55" s="75" t="inlineStr"/>
+      <c r="S55" s="81" t="inlineStr"/>
       <c r="T55" s="10" t="n">
         <v>5</v>
       </c>
       <c r="U55" s="49" t="n"/>
       <c r="V55" s="49" t="n"/>
-      <c r="W55" s="73" t="n">
+      <c r="W55" s="79" t="n">
         <v>2550</v>
       </c>
-      <c r="X55" s="74" t="n"/>
-      <c r="Y55" s="74" t="n"/>
+      <c r="X55" s="80" t="n"/>
+      <c r="Y55" s="80" t="n"/>
     </row>
     <row r="56" ht="15" customHeight="1">
-      <c r="A56" s="76" t="n"/>
-      <c r="B56" s="76" t="n"/>
-      <c r="C56" s="76" t="n"/>
-      <c r="D56" s="77" t="n"/>
-      <c r="E56" s="78" t="inlineStr">
+      <c r="A56" s="82" t="n"/>
+      <c r="B56" s="82" t="n"/>
+      <c r="C56" s="82" t="n"/>
+      <c r="D56" s="83" t="n"/>
+      <c r="E56" s="84" t="inlineStr">
         <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="F56" s="78" t="n"/>
-      <c r="G56" s="78" t="n"/>
-      <c r="H56" s="78" t="n"/>
-      <c r="I56" s="79">
+      <c r="F56" s="84" t="n"/>
+      <c r="G56" s="84" t="n"/>
+      <c r="H56" s="84" t="n"/>
+      <c r="I56" s="85">
         <f>SUM(I7:I55)</f>
         <v/>
       </c>
-      <c r="J56" s="79">
+      <c r="J56" s="85">
         <f>SUM(J7:J55)</f>
         <v/>
       </c>
-      <c r="K56" s="79">
+      <c r="K56" s="85">
         <f>SUM(K7:K55)</f>
         <v/>
       </c>
-      <c r="L56" s="79">
+      <c r="L56" s="85">
         <f>SUM(L7:L55)</f>
         <v/>
       </c>
-      <c r="M56" s="79">
+      <c r="M56" s="85">
         <f>SUM(M7:M55)</f>
         <v/>
       </c>
-      <c r="N56" s="79">
+      <c r="N56" s="85">
         <f>SUM(N7:N55)</f>
         <v/>
       </c>
-      <c r="O56" s="79">
+      <c r="O56" s="85">
         <f>SUM(O7:O55)</f>
         <v/>
       </c>
-      <c r="P56" s="79">
+      <c r="P56" s="85">
         <f>SUM(P7:P55)</f>
         <v/>
       </c>
-      <c r="Q56" s="79">
+      <c r="Q56" s="85">
         <f>SUM(Q7:Q55)</f>
         <v/>
       </c>
-      <c r="R56" s="79">
+      <c r="R56" s="85">
         <f>SUM(R7:R55)</f>
         <v/>
       </c>
-      <c r="S56" s="80" t="n"/>
-      <c r="T56" s="79">
+      <c r="S56" s="86" t="n"/>
+      <c r="T56" s="85">
         <f>SUM(T7:T53)</f>
         <v/>
       </c>
-      <c r="U56" s="79">
+      <c r="U56" s="85">
         <f>SUM(U7:U53)</f>
         <v/>
       </c>
-      <c r="V56" s="79">
+      <c r="V56" s="85">
         <f>SUM(V7:V53)</f>
         <v/>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="85">
         <f>SUM(W7:W55)</f>
         <v/>
       </c>
-      <c r="X56" s="79" t="n"/>
-      <c r="Y56" s="79" t="n"/>
+      <c r="X56" s="85" t="n"/>
+      <c r="Y56" s="85" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -7809,18 +7829,14 @@
     <col hidden="1" outlineLevel="1" width="7.5" customWidth="1" min="6" max="8"/>
     <col width="8.25" customWidth="1" min="9" max="9"/>
     <col width="8.25" customWidth="1" min="10" max="10"/>
-    <col width="8.25" customWidth="1" min="11" max="11"/>
-    <col width="8.25" customWidth="1" min="12" max="12"/>
-    <col width="8.25" customWidth="1" min="13" max="13"/>
-    <col width="8.25" customWidth="1" min="14" max="14"/>
-    <col width="8.25" customWidth="1" min="15" max="15"/>
-    <col width="8.25" customWidth="1" min="16" max="16"/>
-    <col width="8.25" customWidth="1" min="17" max="17"/>
-    <col width="8.25" customWidth="1" min="18" max="18"/>
+    <col hidden="1" outlineLevel="1" width="8.25" customWidth="1" min="11" max="18"/>
     <col width="20" customWidth="1" min="19" max="19"/>
     <col width="20" customWidth="1" min="20" max="20"/>
     <col width="20" customWidth="1" min="21" max="21"/>
     <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
+    <col width="20" customWidth="1" min="24" max="24"/>
+    <col width="20" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7920,17 +7936,17 @@
           <t>Неотгружено по опт. заявкам</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="2" t="inlineStr">
         <is>
           <t>Необходимый остаток на 4 месяца</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="2" t="inlineStr">
         <is>
           <t>Оригинал</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="2" t="inlineStr">
         <is>
           <t>КД</t>
         </is>
@@ -7983,6 +7999,9 @@
       <c r="T5" s="2" t="n"/>
       <c r="U5" s="2" t="n"/>
       <c r="V5" s="2" t="n"/>
+      <c r="W5" s="2" t="n"/>
+      <c r="X5" s="2" t="n"/>
+      <c r="Y5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -8039,6 +8058,9 @@
       <c r="T6" s="2" t="n"/>
       <c r="U6" s="2" t="n"/>
       <c r="V6" s="2" t="n"/>
+      <c r="W6" s="2" t="n"/>
+      <c r="X6" s="2" t="n"/>
+      <c r="Y6" s="2" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="39" t="n"/>
@@ -8050,9 +8072,9 @@
           <t>51120 Заготовка имплантата LM Implantium D=3.6 L=8 (арт. FX3408) V.1</t>
         </is>
       </c>
-      <c r="F7" s="81" t="n"/>
-      <c r="G7" s="81" t="n"/>
-      <c r="H7" s="81" t="n"/>
+      <c r="F7" s="87" t="n"/>
+      <c r="G7" s="87" t="n"/>
+      <c r="H7" s="87" t="n"/>
       <c r="I7" s="43" t="n">
         <v>35</v>
       </c>
@@ -8092,12 +8114,12 @@
       <c r="W7" s="50" t="n">
         <v>1600</v>
       </c>
-      <c r="X7" s="49" t="inlineStr">
+      <c r="X7" s="51" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y7" s="49" t="inlineStr">
+      <c r="Y7" s="51" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -8108,18 +8130,18 @@
       <c r="B8" s="39" t="n"/>
       <c r="C8" s="39" t="n"/>
       <c r="D8" s="40" t="n"/>
-      <c r="E8" s="51" t="inlineStr">
+      <c r="E8" s="53" t="inlineStr">
         <is>
           <t>51121 Заготовка имплантата LM Implantium D=3.6 L=10 (арт. FX 3410) V.1</t>
         </is>
       </c>
-      <c r="F8" s="70" t="n"/>
-      <c r="G8" s="70" t="n"/>
-      <c r="H8" s="70" t="n"/>
+      <c r="F8" s="76" t="n"/>
+      <c r="G8" s="76" t="n"/>
+      <c r="H8" s="76" t="n"/>
       <c r="I8" s="49" t="n">
         <v>54</v>
       </c>
-      <c r="J8" s="53" t="n">
+      <c r="J8" s="55" t="n">
         <v>10</v>
       </c>
       <c r="K8" s="45" t="n">
@@ -8146,7 +8168,7 @@
       <c r="R8" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="S8" s="60" t="inlineStr"/>
+      <c r="S8" s="65" t="inlineStr"/>
       <c r="T8" s="48" t="n">
         <v>573</v>
       </c>
@@ -8155,12 +8177,12 @@
       <c r="W8" s="46" t="n">
         <v>1600</v>
       </c>
-      <c r="X8" s="54" t="inlineStr">
+      <c r="X8" s="56" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y8" s="54" t="inlineStr">
+      <c r="Y8" s="56" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -8171,18 +8193,18 @@
       <c r="B9" s="39" t="n"/>
       <c r="C9" s="39" t="n"/>
       <c r="D9" s="40" t="n"/>
-      <c r="E9" s="66" t="inlineStr">
+      <c r="E9" s="72" t="inlineStr">
         <is>
           <t>51122 Заготовка имплантата LM Implantium D=3.6 L=12 (арт. FX 3412) V.1</t>
         </is>
       </c>
-      <c r="F9" s="70" t="n"/>
-      <c r="G9" s="70" t="n"/>
-      <c r="H9" s="70" t="n"/>
+      <c r="F9" s="76" t="n"/>
+      <c r="G9" s="76" t="n"/>
+      <c r="H9" s="76" t="n"/>
       <c r="I9" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="53" t="n">
+      <c r="J9" s="55" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="45" t="n">
@@ -8209,19 +8231,21 @@
       <c r="R9" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="60" t="n"/>
-      <c r="T9" s="48" t="n"/>
+      <c r="S9" s="65" t="n"/>
+      <c r="T9" s="48" t="n">
+        <v>1081</v>
+      </c>
       <c r="U9" s="49" t="n"/>
       <c r="V9" s="45" t="n"/>
       <c r="W9" s="46" t="n">
         <v>1200</v>
       </c>
-      <c r="X9" s="46" t="inlineStr">
+      <c r="X9" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y9" s="46" t="inlineStr">
+      <c r="Y9" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -8232,18 +8256,18 @@
       <c r="B10" s="39" t="n"/>
       <c r="C10" s="39" t="n"/>
       <c r="D10" s="40" t="n"/>
-      <c r="E10" s="61" t="inlineStr">
+      <c r="E10" s="66" t="inlineStr">
         <is>
           <t>51123 Заготовка имплантата LM Implantium D=3.6 L=14 (арт. FX 3414) V.1</t>
         </is>
       </c>
-      <c r="F10" s="82" t="n"/>
-      <c r="G10" s="82" t="n"/>
-      <c r="H10" s="82" t="n"/>
-      <c r="I10" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="58" t="n">
+      <c r="F10" s="88" t="n"/>
+      <c r="G10" s="88" t="n"/>
+      <c r="H10" s="88" t="n"/>
+      <c r="I10" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="63" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="45" t="n">
@@ -8270,19 +8294,21 @@
       <c r="R10" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="60" t="n"/>
-      <c r="T10" s="48" t="n"/>
+      <c r="S10" s="65" t="n"/>
+      <c r="T10" s="48" t="n">
+        <v>505</v>
+      </c>
       <c r="U10" s="49" t="n"/>
       <c r="V10" s="45" t="n"/>
       <c r="W10" s="46" t="n">
         <v>400</v>
       </c>
-      <c r="X10" s="46" t="inlineStr">
+      <c r="X10" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y10" s="46" t="inlineStr">
+      <c r="Y10" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -8298,9 +8324,9 @@
           <t>51116 Заготовка имплантата LM Implantium D=4 L=8 (арт. FX3808) V.1</t>
         </is>
       </c>
-      <c r="F11" s="81" t="n"/>
-      <c r="G11" s="81" t="n"/>
-      <c r="H11" s="81" t="n"/>
+      <c r="F11" s="87" t="n"/>
+      <c r="G11" s="87" t="n"/>
+      <c r="H11" s="87" t="n"/>
       <c r="I11" s="43" t="n">
         <v>13</v>
       </c>
@@ -8331,7 +8357,7 @@
       <c r="R11" s="46" t="n">
         <v>8</v>
       </c>
-      <c r="S11" s="60" t="inlineStr"/>
+      <c r="S11" s="65" t="inlineStr"/>
       <c r="T11" s="48" t="n">
         <v>1565</v>
       </c>
@@ -8340,12 +8366,12 @@
       <c r="W11" s="46" t="n">
         <v>2000</v>
       </c>
-      <c r="X11" s="46" t="inlineStr">
+      <c r="X11" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y11" s="46" t="inlineStr">
+      <c r="Y11" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -8356,22 +8382,22 @@
       <c r="B12" s="39" t="n"/>
       <c r="C12" s="39" t="n"/>
       <c r="D12" s="40" t="n"/>
-      <c r="E12" s="51" t="inlineStr">
+      <c r="E12" s="53" t="inlineStr">
         <is>
           <t>51117 Заготовка имплантата LM Implantium D=4 L=10 (арт. FX3810) V.1</t>
         </is>
       </c>
-      <c r="F12" s="70" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G12" s="70" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H12" s="70" t="inlineStr">
+      <c r="F12" s="76" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G12" s="76" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H12" s="76" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -8379,7 +8405,7 @@
       <c r="I12" s="49" t="n">
         <v>42</v>
       </c>
-      <c r="J12" s="53" t="n">
+      <c r="J12" s="55" t="n">
         <v>15</v>
       </c>
       <c r="K12" s="45" t="n">
@@ -8406,7 +8432,7 @@
       <c r="R12" s="46" t="n">
         <v>7</v>
       </c>
-      <c r="S12" s="60" t="inlineStr"/>
+      <c r="S12" s="65" t="inlineStr"/>
       <c r="T12" s="48" t="n">
         <v>1502</v>
       </c>
@@ -8415,12 +8441,12 @@
       <c r="W12" s="46" t="n">
         <v>3200</v>
       </c>
-      <c r="X12" s="46" t="inlineStr">
+      <c r="X12" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y12" s="46" t="inlineStr">
+      <c r="Y12" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -8431,18 +8457,18 @@
       <c r="B13" s="39" t="n"/>
       <c r="C13" s="39" t="n"/>
       <c r="D13" s="40" t="n"/>
-      <c r="E13" s="51" t="inlineStr">
+      <c r="E13" s="53" t="inlineStr">
         <is>
           <t>51118 Заготовка имплантата LM Implantium D=4 L=12 (арт. FX3812) V.1</t>
         </is>
       </c>
-      <c r="F13" s="70" t="n"/>
-      <c r="G13" s="70" t="n"/>
-      <c r="H13" s="70" t="n"/>
+      <c r="F13" s="76" t="n"/>
+      <c r="G13" s="76" t="n"/>
+      <c r="H13" s="76" t="n"/>
       <c r="I13" s="49" t="n">
         <v>52</v>
       </c>
-      <c r="J13" s="53" t="n">
+      <c r="J13" s="55" t="n">
         <v>6</v>
       </c>
       <c r="K13" s="45" t="n">
@@ -8469,7 +8495,7 @@
       <c r="R13" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S13" s="60" t="inlineStr"/>
+      <c r="S13" s="65" t="inlineStr"/>
       <c r="T13" s="48" t="n">
         <v>845</v>
       </c>
@@ -8478,12 +8504,12 @@
       <c r="W13" s="46" t="n">
         <v>1600</v>
       </c>
-      <c r="X13" s="46" t="inlineStr">
+      <c r="X13" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y13" s="46" t="inlineStr">
+      <c r="Y13" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -8494,18 +8520,18 @@
       <c r="B14" s="39" t="n"/>
       <c r="C14" s="39" t="n"/>
       <c r="D14" s="40" t="n"/>
-      <c r="E14" s="61" t="inlineStr">
+      <c r="E14" s="66" t="inlineStr">
         <is>
           <t>51119 Заготовка имплантата LM Implantium D=4 L=14 (арт. FX3814) V.1</t>
         </is>
       </c>
-      <c r="F14" s="82" t="n"/>
-      <c r="G14" s="82" t="n"/>
-      <c r="H14" s="82" t="n"/>
-      <c r="I14" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="58" t="n">
+      <c r="F14" s="88" t="n"/>
+      <c r="G14" s="88" t="n"/>
+      <c r="H14" s="88" t="n"/>
+      <c r="I14" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="63" t="n">
         <v>10</v>
       </c>
       <c r="K14" s="45" t="n">
@@ -8532,7 +8558,7 @@
       <c r="R14" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S14" s="60" t="inlineStr"/>
+      <c r="S14" s="65" t="inlineStr"/>
       <c r="T14" s="48" t="n">
         <v>525</v>
       </c>
@@ -8541,12 +8567,12 @@
       <c r="W14" s="46" t="n">
         <v>400</v>
       </c>
-      <c r="X14" s="46" t="inlineStr">
+      <c r="X14" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y14" s="46" t="inlineStr">
+      <c r="Y14" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -8562,9 +8588,9 @@
           <t>51112 Заготовка имплантата LM Implantium D=4.5 L=8 (арт. FX4308) V.1</t>
         </is>
       </c>
-      <c r="F15" s="81" t="n"/>
-      <c r="G15" s="81" t="n"/>
-      <c r="H15" s="81" t="n"/>
+      <c r="F15" s="87" t="n"/>
+      <c r="G15" s="87" t="n"/>
+      <c r="H15" s="87" t="n"/>
       <c r="I15" s="43" t="n">
         <v>8</v>
       </c>
@@ -8595,7 +8621,7 @@
       <c r="R15" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="S15" s="60" t="inlineStr"/>
+      <c r="S15" s="65" t="inlineStr"/>
       <c r="T15" s="48" t="n">
         <v>1203</v>
       </c>
@@ -8604,12 +8630,12 @@
       <c r="W15" s="46" t="n">
         <v>2400</v>
       </c>
-      <c r="X15" s="46" t="inlineStr">
+      <c r="X15" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y15" s="46" t="inlineStr">
+      <c r="Y15" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -8620,18 +8646,18 @@
       <c r="B16" s="39" t="n"/>
       <c r="C16" s="39" t="n"/>
       <c r="D16" s="40" t="n"/>
-      <c r="E16" s="51" t="inlineStr">
+      <c r="E16" s="53" t="inlineStr">
         <is>
           <t>51113 Заготовка имплантата LM Implantium D=4.5 L=10 (арт. FX4310) V.1</t>
         </is>
       </c>
-      <c r="F16" s="70" t="n"/>
-      <c r="G16" s="70" t="n"/>
-      <c r="H16" s="70" t="n"/>
+      <c r="F16" s="76" t="n"/>
+      <c r="G16" s="76" t="n"/>
+      <c r="H16" s="76" t="n"/>
       <c r="I16" s="49" t="n">
         <v>5</v>
       </c>
-      <c r="J16" s="53" t="n">
+      <c r="J16" s="55" t="n">
         <v>27</v>
       </c>
       <c r="K16" s="45" t="n">
@@ -8658,7 +8684,7 @@
       <c r="R16" s="46" t="n">
         <v>4</v>
       </c>
-      <c r="S16" s="60" t="inlineStr"/>
+      <c r="S16" s="65" t="inlineStr"/>
       <c r="T16" s="48" t="n">
         <v>1847</v>
       </c>
@@ -8667,12 +8693,12 @@
       <c r="W16" s="46" t="n">
         <v>3200</v>
       </c>
-      <c r="X16" s="46" t="inlineStr">
+      <c r="X16" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y16" s="46" t="inlineStr">
+      <c r="Y16" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -8683,18 +8709,18 @@
       <c r="B17" s="39" t="n"/>
       <c r="C17" s="39" t="n"/>
       <c r="D17" s="40" t="n"/>
-      <c r="E17" s="51" t="inlineStr">
+      <c r="E17" s="53" t="inlineStr">
         <is>
           <t>51114 Заготовка имплантата LM Implantium D=4.5 L=12 (арт. FX4312) V.1</t>
         </is>
       </c>
-      <c r="F17" s="70" t="n"/>
-      <c r="G17" s="70" t="n"/>
-      <c r="H17" s="70" t="n"/>
+      <c r="F17" s="76" t="n"/>
+      <c r="G17" s="76" t="n"/>
+      <c r="H17" s="76" t="n"/>
       <c r="I17" s="49" t="n">
         <v>12</v>
       </c>
-      <c r="J17" s="53" t="n">
+      <c r="J17" s="55" t="n">
         <v>9</v>
       </c>
       <c r="K17" s="45" t="n">
@@ -8721,7 +8747,7 @@
       <c r="R17" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S17" s="60" t="inlineStr"/>
+      <c r="S17" s="65" t="inlineStr"/>
       <c r="T17" s="48" t="n">
         <v>747</v>
       </c>
@@ -8730,12 +8756,12 @@
       <c r="W17" s="46" t="n">
         <v>800</v>
       </c>
-      <c r="X17" s="46" t="inlineStr">
+      <c r="X17" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y17" s="46" t="inlineStr">
+      <c r="Y17" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -8746,18 +8772,18 @@
       <c r="B18" s="39" t="n"/>
       <c r="C18" s="39" t="n"/>
       <c r="D18" s="40" t="n"/>
-      <c r="E18" s="61" t="inlineStr">
+      <c r="E18" s="66" t="inlineStr">
         <is>
           <t>51115 Заготовка имплантата LM Implantium D=4.5 L=14 (арт. FX4314) V.1</t>
         </is>
       </c>
-      <c r="F18" s="82" t="n"/>
-      <c r="G18" s="82" t="n"/>
-      <c r="H18" s="82" t="n"/>
-      <c r="I18" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="53" t="n">
+      <c r="F18" s="88" t="n"/>
+      <c r="G18" s="88" t="n"/>
+      <c r="H18" s="88" t="n"/>
+      <c r="I18" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="55" t="n">
         <v>0</v>
       </c>
       <c r="K18" s="45" t="n">
@@ -8784,19 +8810,21 @@
       <c r="R18" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S18" s="60" t="n"/>
-      <c r="T18" s="48" t="n"/>
+      <c r="S18" s="65" t="n"/>
+      <c r="T18" s="48" t="n">
+        <v>678</v>
+      </c>
       <c r="U18" s="49" t="n"/>
       <c r="V18" s="45" t="n"/>
       <c r="W18" s="46" t="n">
         <v>400</v>
       </c>
-      <c r="X18" s="46" t="inlineStr">
+      <c r="X18" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y18" s="46" t="inlineStr">
+      <c r="Y18" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -8807,14 +8835,14 @@
       <c r="B19" s="39" t="n"/>
       <c r="C19" s="39" t="n"/>
       <c r="D19" s="40" t="n"/>
-      <c r="E19" s="67" t="inlineStr">
+      <c r="E19" s="73" t="inlineStr">
         <is>
           <t>51108 Заготовка имплантата LM Implantium D=5 L=8 (арт. FX4808) V.1</t>
         </is>
       </c>
-      <c r="F19" s="81" t="n"/>
-      <c r="G19" s="81" t="n"/>
-      <c r="H19" s="81" t="n"/>
+      <c r="F19" s="87" t="n"/>
+      <c r="G19" s="87" t="n"/>
+      <c r="H19" s="87" t="n"/>
       <c r="I19" s="43" t="n">
         <v>0</v>
       </c>
@@ -8845,19 +8873,21 @@
       <c r="R19" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S19" s="60" t="n"/>
-      <c r="T19" s="48" t="n"/>
+      <c r="S19" s="65" t="n"/>
+      <c r="T19" s="48" t="n">
+        <v>785</v>
+      </c>
       <c r="U19" s="49" t="n"/>
       <c r="V19" s="45" t="n"/>
       <c r="W19" s="46" t="n">
         <v>400</v>
       </c>
-      <c r="X19" s="46" t="inlineStr">
+      <c r="X19" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y19" s="46" t="inlineStr">
+      <c r="Y19" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -8868,18 +8898,18 @@
       <c r="B20" s="39" t="n"/>
       <c r="C20" s="39" t="n"/>
       <c r="D20" s="40" t="n"/>
-      <c r="E20" s="51" t="inlineStr">
+      <c r="E20" s="53" t="inlineStr">
         <is>
           <t>51109 Заготовка имплантата LM Implantium D=5 L=10 (арт. FX4810) V.1</t>
         </is>
       </c>
-      <c r="F20" s="70" t="n"/>
-      <c r="G20" s="70" t="n"/>
-      <c r="H20" s="70" t="n"/>
+      <c r="F20" s="76" t="n"/>
+      <c r="G20" s="76" t="n"/>
+      <c r="H20" s="76" t="n"/>
       <c r="I20" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="J20" s="53" t="n">
+      <c r="J20" s="55" t="n">
         <v>20</v>
       </c>
       <c r="K20" s="45" t="n">
@@ -8906,7 +8936,7 @@
       <c r="R20" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S20" s="60" t="inlineStr"/>
+      <c r="S20" s="65" t="inlineStr"/>
       <c r="T20" s="48" t="n">
         <v>871</v>
       </c>
@@ -8915,12 +8945,12 @@
       <c r="W20" s="46" t="n">
         <v>400</v>
       </c>
-      <c r="X20" s="46" t="inlineStr">
+      <c r="X20" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y20" s="46" t="inlineStr">
+      <c r="Y20" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -8931,18 +8961,18 @@
       <c r="B21" s="39" t="n"/>
       <c r="C21" s="39" t="n"/>
       <c r="D21" s="40" t="n"/>
-      <c r="E21" s="66" t="inlineStr">
+      <c r="E21" s="72" t="inlineStr">
         <is>
           <t>51110 Заготовка имплантата LM Implantium D=5 L=12 (арт. FX4812) V.1</t>
         </is>
       </c>
-      <c r="F21" s="70" t="n"/>
-      <c r="G21" s="70" t="n"/>
-      <c r="H21" s="70" t="n"/>
+      <c r="F21" s="76" t="n"/>
+      <c r="G21" s="76" t="n"/>
+      <c r="H21" s="76" t="n"/>
       <c r="I21" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="53" t="n">
+      <c r="J21" s="55" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="45" t="n">
@@ -8969,19 +8999,21 @@
       <c r="R21" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S21" s="60" t="n"/>
-      <c r="T21" s="48" t="n"/>
+      <c r="S21" s="65" t="n"/>
+      <c r="T21" s="48" t="n">
+        <v>562</v>
+      </c>
       <c r="U21" s="49" t="n"/>
       <c r="V21" s="45" t="n"/>
       <c r="W21" s="46" t="n">
         <v>200</v>
       </c>
-      <c r="X21" s="46" t="inlineStr">
+      <c r="X21" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y21" s="46" t="inlineStr">
+      <c r="Y21" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -8992,18 +9024,18 @@
       <c r="B22" s="39" t="n"/>
       <c r="C22" s="39" t="n"/>
       <c r="D22" s="40" t="n"/>
-      <c r="E22" s="61" t="inlineStr">
+      <c r="E22" s="66" t="inlineStr">
         <is>
           <t>51111 Заготовка имплантата LM Implantium D=5 L=14 (арт. FX4814) V.1</t>
         </is>
       </c>
-      <c r="F22" s="82" t="n"/>
-      <c r="G22" s="82" t="n"/>
-      <c r="H22" s="82" t="n"/>
-      <c r="I22" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="58" t="n">
+      <c r="F22" s="88" t="n"/>
+      <c r="G22" s="88" t="n"/>
+      <c r="H22" s="88" t="n"/>
+      <c r="I22" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="63" t="n">
         <v>0</v>
       </c>
       <c r="K22" s="45" t="n">
@@ -9030,19 +9062,21 @@
       <c r="R22" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S22" s="60" t="n"/>
-      <c r="T22" s="48" t="n"/>
+      <c r="S22" s="65" t="n"/>
+      <c r="T22" s="48" t="n">
+        <v>502</v>
+      </c>
       <c r="U22" s="49" t="n"/>
       <c r="V22" s="45" t="n"/>
       <c r="W22" s="46" t="n">
         <v>200</v>
       </c>
-      <c r="X22" s="46" t="inlineStr">
+      <c r="X22" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
       </c>
-      <c r="Y22" s="46" t="inlineStr">
+      <c r="Y22" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -9053,12 +9087,12 @@
       <c r="B23" s="39" t="n"/>
       <c r="C23" s="39" t="n"/>
       <c r="D23" s="40" t="n"/>
-      <c r="E23" s="68" t="n"/>
-      <c r="F23" s="68" t="n"/>
-      <c r="G23" s="68" t="n"/>
-      <c r="H23" s="68" t="n"/>
-      <c r="I23" s="69" t="n"/>
-      <c r="J23" s="69" t="n"/>
+      <c r="E23" s="74" t="n"/>
+      <c r="F23" s="74" t="n"/>
+      <c r="G23" s="74" t="n"/>
+      <c r="H23" s="74" t="n"/>
+      <c r="I23" s="75" t="n"/>
+      <c r="J23" s="75" t="n"/>
       <c r="K23" s="45" t="n"/>
       <c r="L23" s="46" t="n"/>
       <c r="M23" s="46" t="n"/>
@@ -9067,7 +9101,7 @@
       <c r="P23" s="46" t="n"/>
       <c r="Q23" s="46" t="n"/>
       <c r="R23" s="46" t="n"/>
-      <c r="S23" s="60" t="n"/>
+      <c r="S23" s="65" t="n"/>
       <c r="T23" s="10" t="n"/>
       <c r="U23" s="49" t="n"/>
       <c r="V23" s="45" t="n"/>
@@ -9080,22 +9114,22 @@
       <c r="B24" s="39" t="n"/>
       <c r="C24" s="39" t="n"/>
       <c r="D24" s="40" t="n"/>
-      <c r="E24" s="71" t="inlineStr">
+      <c r="E24" s="77" t="inlineStr">
         <is>
           <t>62001 Держатель для постмашинной обработки имплантатов Osstem Implant Regular LM</t>
         </is>
       </c>
-      <c r="F24" s="70" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G24" s="70" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H24" s="70" t="inlineStr">
+      <c r="F24" s="76" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G24" s="76" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H24" s="76" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
@@ -9130,17 +9164,17 @@
       <c r="R24" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S24" s="60" t="n"/>
+      <c r="S24" s="65" t="n"/>
       <c r="T24" s="10" t="n"/>
       <c r="U24" s="49" t="n"/>
       <c r="V24" s="45" t="n"/>
       <c r="W24" s="46" t="n"/>
-      <c r="X24" s="46" t="inlineStr">
+      <c r="X24" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y24" s="46" t="inlineStr">
+      <c r="Y24" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -9151,10 +9185,10 @@
       <c r="B25" s="39" t="n"/>
       <c r="C25" s="39" t="n"/>
       <c r="D25" s="40" t="n"/>
-      <c r="E25" s="70" t="n"/>
-      <c r="F25" s="70" t="n"/>
-      <c r="G25" s="70" t="n"/>
-      <c r="H25" s="70" t="n"/>
+      <c r="E25" s="76" t="n"/>
+      <c r="F25" s="76" t="n"/>
+      <c r="G25" s="76" t="n"/>
+      <c r="H25" s="76" t="n"/>
       <c r="I25" s="49" t="n"/>
       <c r="J25" s="49" t="n"/>
       <c r="K25" s="45" t="n"/>
@@ -9165,7 +9199,7 @@
       <c r="P25" s="46" t="n"/>
       <c r="Q25" s="46" t="n"/>
       <c r="R25" s="46" t="n"/>
-      <c r="S25" s="60" t="n"/>
+      <c r="S25" s="65" t="n"/>
       <c r="T25" s="10" t="n"/>
       <c r="U25" s="49" t="n"/>
       <c r="V25" s="45" t="n"/>
@@ -9178,14 +9212,14 @@
       <c r="B26" s="39" t="n"/>
       <c r="C26" s="39" t="n"/>
       <c r="D26" s="40" t="n"/>
-      <c r="E26" s="71" t="inlineStr">
+      <c r="E26" s="77" t="inlineStr">
         <is>
           <t>63009 Винт для держателя имплантатов Implantium LM</t>
         </is>
       </c>
-      <c r="F26" s="70" t="n"/>
-      <c r="G26" s="70" t="n"/>
-      <c r="H26" s="70" t="n"/>
+      <c r="F26" s="76" t="n"/>
+      <c r="G26" s="76" t="n"/>
+      <c r="H26" s="76" t="n"/>
       <c r="I26" s="49" t="n">
         <v>0</v>
       </c>
@@ -9216,17 +9250,17 @@
       <c r="R26" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S26" s="60" t="n"/>
+      <c r="S26" s="65" t="n"/>
       <c r="T26" s="10" t="n"/>
       <c r="U26" s="49" t="n"/>
       <c r="V26" s="45" t="n"/>
       <c r="W26" s="46" t="n"/>
-      <c r="X26" s="46" t="inlineStr">
+      <c r="X26" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y26" s="46" t="inlineStr">
+      <c r="Y26" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -9237,10 +9271,10 @@
       <c r="B27" s="39" t="n"/>
       <c r="C27" s="39" t="n"/>
       <c r="D27" s="40" t="n"/>
-      <c r="E27" s="70" t="n"/>
-      <c r="F27" s="70" t="n"/>
-      <c r="G27" s="70" t="n"/>
-      <c r="H27" s="70" t="n"/>
+      <c r="E27" s="76" t="n"/>
+      <c r="F27" s="76" t="n"/>
+      <c r="G27" s="76" t="n"/>
+      <c r="H27" s="76" t="n"/>
       <c r="I27" s="49" t="n"/>
       <c r="J27" s="49" t="n"/>
       <c r="K27" s="45" t="n"/>
@@ -9251,7 +9285,7 @@
       <c r="P27" s="46" t="n"/>
       <c r="Q27" s="46" t="n"/>
       <c r="R27" s="46" t="n"/>
-      <c r="S27" s="60" t="n"/>
+      <c r="S27" s="65" t="n"/>
       <c r="T27" s="10" t="n"/>
       <c r="U27" s="49" t="n"/>
       <c r="V27" s="45" t="n"/>
@@ -9314,19 +9348,19 @@
       <c r="R28" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S28" s="60" t="n"/>
+      <c r="S28" s="65" t="n"/>
       <c r="T28" s="10" t="n"/>
       <c r="U28" s="49" t="n"/>
       <c r="V28" s="45" t="n"/>
       <c r="W28" s="46" t="n">
         <v>15000</v>
       </c>
-      <c r="X28" s="46" t="inlineStr">
+      <c r="X28" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y28" s="46" t="inlineStr">
+      <c r="Y28" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -9337,18 +9371,18 @@
       <c r="B29" s="39" t="n"/>
       <c r="C29" s="39" t="n"/>
       <c r="D29" s="40" t="n"/>
-      <c r="E29" s="70" t="inlineStr">
+      <c r="E29" s="76" t="inlineStr">
         <is>
           <t>42001 Адаптер для установки имплантов LM Implantium 3.4 V.1 / БЕЗ ВИНТА</t>
         </is>
       </c>
-      <c r="F29" s="68" t="n"/>
-      <c r="G29" s="68" t="n"/>
-      <c r="H29" s="68" t="n"/>
-      <c r="I29" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="69" t="n">
+      <c r="F29" s="74" t="n"/>
+      <c r="G29" s="74" t="n"/>
+      <c r="H29" s="74" t="n"/>
+      <c r="I29" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="75" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="45" t="n">
@@ -9375,19 +9409,19 @@
       <c r="R29" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="S29" s="60" t="n"/>
+      <c r="S29" s="65" t="n"/>
       <c r="T29" s="10" t="n"/>
       <c r="U29" s="49" t="n"/>
       <c r="V29" s="45" t="n"/>
       <c r="W29" s="46" t="n">
         <v>5000</v>
       </c>
-      <c r="X29" s="83" t="inlineStr">
+      <c r="X29" s="67" t="inlineStr">
         <is>
           <t>нет данных</t>
         </is>
       </c>
-      <c r="Y29" s="83" t="inlineStr">
+      <c r="Y29" s="67" t="inlineStr">
         <is>
           <t>нет данных</t>
         </is>
@@ -9398,12 +9432,12 @@
       <c r="B30" s="39" t="n"/>
       <c r="C30" s="39" t="n"/>
       <c r="D30" s="40" t="n"/>
-      <c r="E30" s="70" t="n"/>
-      <c r="F30" s="68" t="n"/>
-      <c r="G30" s="68" t="n"/>
-      <c r="H30" s="68" t="n"/>
-      <c r="I30" s="69" t="n"/>
-      <c r="J30" s="69" t="n"/>
+      <c r="E30" s="76" t="n"/>
+      <c r="F30" s="74" t="n"/>
+      <c r="G30" s="74" t="n"/>
+      <c r="H30" s="74" t="n"/>
+      <c r="I30" s="75" t="n"/>
+      <c r="J30" s="75" t="n"/>
       <c r="K30" s="45" t="n"/>
       <c r="L30" s="46" t="n"/>
       <c r="M30" s="46" t="n"/>
@@ -9412,7 +9446,7 @@
       <c r="P30" s="46" t="n"/>
       <c r="Q30" s="46" t="n"/>
       <c r="R30" s="46" t="n"/>
-      <c r="S30" s="60" t="n"/>
+      <c r="S30" s="65" t="n"/>
       <c r="T30" s="10" t="n"/>
       <c r="U30" s="49" t="n"/>
       <c r="V30" s="45" t="n"/>
@@ -9425,22 +9459,22 @@
       <c r="B31" s="39" t="n"/>
       <c r="C31" s="39" t="n"/>
       <c r="D31" s="40" t="n"/>
-      <c r="E31" s="70" t="inlineStr">
+      <c r="E31" s="76" t="inlineStr">
         <is>
           <t>42101 Винт для адаптера установки имплантов Implanmium LM V.1</t>
         </is>
       </c>
-      <c r="F31" s="70" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G31" s="70" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H31" s="70" t="inlineStr">
+      <c r="F31" s="76" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G31" s="76" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H31" s="76" t="inlineStr">
         <is>
           <t>Версия 2</t>
         </is>
@@ -9475,19 +9509,19 @@
       <c r="R31" s="46" t="n">
         <v>22</v>
       </c>
-      <c r="S31" s="60" t="inlineStr"/>
+      <c r="S31" s="65" t="inlineStr"/>
       <c r="T31" s="10" t="n"/>
       <c r="U31" s="49" t="n"/>
       <c r="V31" s="45" t="n"/>
       <c r="W31" s="46" t="n">
         <v>20000</v>
       </c>
-      <c r="X31" s="46" t="inlineStr">
+      <c r="X31" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y31" s="46" t="inlineStr">
+      <c r="Y31" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -9498,10 +9532,10 @@
       <c r="B32" s="39" t="n"/>
       <c r="C32" s="39" t="n"/>
       <c r="D32" s="40" t="n"/>
-      <c r="E32" s="70" t="n"/>
-      <c r="F32" s="70" t="n"/>
-      <c r="G32" s="70" t="n"/>
-      <c r="H32" s="70" t="n"/>
+      <c r="E32" s="76" t="n"/>
+      <c r="F32" s="76" t="n"/>
+      <c r="G32" s="76" t="n"/>
+      <c r="H32" s="76" t="n"/>
       <c r="I32" s="49" t="n"/>
       <c r="J32" s="49" t="n"/>
       <c r="K32" s="45" t="n"/>
@@ -9512,7 +9546,7 @@
       <c r="P32" s="46" t="n"/>
       <c r="Q32" s="46" t="n"/>
       <c r="R32" s="46" t="n"/>
-      <c r="S32" s="60" t="n"/>
+      <c r="S32" s="65" t="n"/>
       <c r="T32" s="10" t="n"/>
       <c r="U32" s="49" t="n"/>
       <c r="V32" s="45" t="n"/>
@@ -9525,14 +9559,14 @@
       <c r="B33" s="39" t="n"/>
       <c r="C33" s="39" t="n"/>
       <c r="D33" s="40" t="n"/>
-      <c r="E33" s="70" t="inlineStr">
+      <c r="E33" s="76" t="inlineStr">
         <is>
           <t>50013 Винт-заглушка имплантата LM Implantium 3.8/4.2 V.1</t>
         </is>
       </c>
-      <c r="F33" s="70" t="n"/>
-      <c r="G33" s="70" t="n"/>
-      <c r="H33" s="70" t="n"/>
+      <c r="F33" s="76" t="n"/>
+      <c r="G33" s="76" t="n"/>
+      <c r="H33" s="76" t="n"/>
       <c r="I33" s="49" t="n">
         <v>11158</v>
       </c>
@@ -9563,19 +9597,19 @@
       <c r="R33" s="46" t="n">
         <v>10</v>
       </c>
-      <c r="S33" s="60" t="inlineStr"/>
+      <c r="S33" s="65" t="inlineStr"/>
       <c r="T33" s="10" t="n"/>
       <c r="U33" s="49" t="n"/>
       <c r="V33" s="45" t="n"/>
       <c r="W33" s="46" t="n">
         <v>20000</v>
       </c>
-      <c r="X33" s="46" t="inlineStr">
+      <c r="X33" s="58" t="inlineStr">
         <is>
           <t>не требуется</t>
         </is>
       </c>
-      <c r="Y33" s="46" t="inlineStr">
+      <c r="Y33" s="58" t="inlineStr">
         <is>
           <t>есть</t>
         </is>
@@ -9586,19 +9620,19 @@
       <c r="B34" s="39" t="n"/>
       <c r="C34" s="39" t="n"/>
       <c r="D34" s="40" t="n"/>
-      <c r="E34" s="70" t="inlineStr">
+      <c r="E34" s="76" t="inlineStr">
         <is>
           <t>41336 Винт-заглушка имплантата LM Implantium (арт. CS36) V.1</t>
         </is>
       </c>
-      <c r="F34" s="70" t="n"/>
-      <c r="G34" s="70" t="n"/>
-      <c r="H34" s="70" t="n"/>
+      <c r="F34" s="76" t="n"/>
+      <c r="G34" s="76" t="n"/>
+      <c r="H34" s="76" t="n"/>
       <c r="I34" s="49" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J34" s="49" t="n">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="K34" s="45" t="n">
         <v>0</v>
@@ -9610,108 +9644,108 @@
         <v>0</v>
       </c>
       <c r="N34" s="46" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="O34" s="46" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P34" s="46" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="46" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="R34" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" s="60" t="n"/>
+        <v>22</v>
+      </c>
+      <c r="S34" s="65" t="inlineStr"/>
       <c r="T34" s="10" t="n"/>
       <c r="U34" s="49" t="n"/>
       <c r="V34" s="45" t="n"/>
-      <c r="W34" s="84" t="n"/>
-      <c r="X34" s="83" t="inlineStr">
+      <c r="W34" s="89" t="n"/>
+      <c r="X34" s="67" t="inlineStr">
         <is>
           <t>нет данных</t>
         </is>
       </c>
-      <c r="Y34" s="83" t="inlineStr">
+      <c r="Y34" s="67" t="inlineStr">
         <is>
           <t>нет данных</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="76" t="n"/>
-      <c r="B35" s="76" t="n"/>
-      <c r="C35" s="76" t="n"/>
-      <c r="D35" s="76" t="n"/>
-      <c r="E35" s="85" t="inlineStr">
+      <c r="A35" s="82" t="n"/>
+      <c r="B35" s="82" t="n"/>
+      <c r="C35" s="82" t="n"/>
+      <c r="D35" s="82" t="n"/>
+      <c r="E35" s="90" t="inlineStr">
         <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="F35" s="85" t="n"/>
-      <c r="G35" s="85" t="n"/>
-      <c r="H35" s="85" t="n"/>
-      <c r="I35" s="86">
+      <c r="F35" s="90" t="n"/>
+      <c r="G35" s="90" t="n"/>
+      <c r="H35" s="90" t="n"/>
+      <c r="I35" s="91">
         <f>SUM(I7:I34)</f>
         <v/>
       </c>
-      <c r="J35" s="86">
+      <c r="J35" s="91">
         <f>SUM(J7:J34)</f>
         <v/>
       </c>
-      <c r="K35" s="86">
+      <c r="K35" s="91">
         <f>SUM(K7:K34)</f>
         <v/>
       </c>
-      <c r="L35" s="86">
+      <c r="L35" s="91">
         <f>SUM(L7:L34)</f>
         <v/>
       </c>
-      <c r="M35" s="86">
+      <c r="M35" s="91">
         <f>SUM(M7:M34)</f>
         <v/>
       </c>
-      <c r="N35" s="86">
+      <c r="N35" s="91">
         <f>SUM(N7:N34)</f>
         <v/>
       </c>
-      <c r="O35" s="86">
+      <c r="O35" s="91">
         <f>SUM(O7:O34)</f>
         <v/>
       </c>
-      <c r="P35" s="86">
+      <c r="P35" s="91">
         <f>SUM(P7:P34)</f>
         <v/>
       </c>
-      <c r="Q35" s="86">
+      <c r="Q35" s="91">
         <f>SUM(Q7:Q34)</f>
         <v/>
       </c>
-      <c r="R35" s="86">
+      <c r="R35" s="91">
         <f>SUM(R7:R34)</f>
         <v/>
       </c>
-      <c r="S35" s="87" t="n"/>
-      <c r="T35" s="86">
+      <c r="S35" s="92" t="n"/>
+      <c r="T35" s="91">
         <f>SUM(T7:T34)</f>
         <v/>
       </c>
-      <c r="U35" s="86">
+      <c r="U35" s="91">
         <f>SUM(U7:U34)</f>
         <v/>
       </c>
-      <c r="V35" s="86">
+      <c r="V35" s="91">
         <f>SUM(V7:V34)</f>
         <v/>
       </c>
-      <c r="W35" s="86">
+      <c r="W35" s="91">
         <f>SUM(W7:W34)</f>
         <v/>
       </c>
-      <c r="X35" s="88" t="n"/>
-      <c r="Y35" s="88" t="n"/>
+      <c r="X35" s="93" t="n"/>
+      <c r="Y35" s="93" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="24">
